--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED4DB5D-F00D-4094-9D16-8655DE6956EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF51A0-F463-40D2-9A4D-8CA6AACD886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>System should display a brief listing of the contents of the USB folder within the AquaLite program folder, followed by Ok beneath. Note that the contents can vary from system to system.</t>
-  </si>
-  <si>
-    <t>E-1.1.4.1</t>
-  </si>
-  <si>
-    <t>E-1.1.4.2</t>
   </si>
   <si>
     <t>Test DIR</t>
@@ -425,6 +419,246 @@
   </si>
   <si>
     <t>DO NOT CONTINUE IF ANY TESTS IN THIS SECTION DID NOT PASS! CONTACT THE TESTING COORDINATOR.</t>
+  </si>
+  <si>
+    <t>E-1.1.3.1</t>
+  </si>
+  <si>
+    <t>E-1.1.3.2</t>
+  </si>
+  <si>
+    <t>E-1.1.4</t>
+  </si>
+  <si>
+    <t>Test CLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.5.1</t>
+  </si>
+  <si>
+    <t>E-1.1.5.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CLS 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should clear the screen and show Ok in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>black</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> letters on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cyan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> background.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should clear the screen and show Ok in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>black</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> letters on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> background.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CLS $7D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should clear the screen and show Ok in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>white</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> letters on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dark green</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> background.</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.5.3</t>
+  </si>
+  <si>
+    <t>E-1.1.5.4</t>
   </si>
 </sst>
 </file>
@@ -825,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,7 +1075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -862,18 +1096,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -898,50 +1129,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D3E11-A3ED-4CC5-A1AF-BE2B1210CD44}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,20 +1552,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1390,12 +1621,12 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1411,10 +1642,10 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1430,10 +1661,10 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1449,10 +1680,10 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -1468,10 +1699,10 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1487,39 +1718,39 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -1538,7 +1769,7 @@
       <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="29" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -1573,22 +1804,22 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>39</v>
@@ -1596,37 +1827,37 @@
       <c r="F20" s="9"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>39</v>
@@ -1634,37 +1865,37 @@
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="38"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>39</v>
@@ -1672,39 +1903,39 @@
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="23"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>50</v>
@@ -1712,176 +1943,258 @@
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="23"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>51</v>
+      <c r="A27" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="42" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="23"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>52</v>
+      <c r="A28" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="23"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>37</v>
+      <c r="A29" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="43"/>
+      <c r="D31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B38" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="44"/>
-    </row>
-    <row r="31" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="35"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -2563,14 +2876,95 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="C20:C25"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEF51A0-F463-40D2-9A4D-8CA6AACD886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC288F8-A604-4910-8BCA-38B2C1E3BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -147,12 +150,6 @@
   </si>
   <si>
     <t>E-1.1.2</t>
-  </si>
-  <si>
-    <t>E-1.1.5</t>
-  </si>
-  <si>
-    <t>E-1.1.6</t>
   </si>
   <si>
     <t>The cursor should move down one row, and the system should freeze.</t>
@@ -418,9 +415,6 @@
     <t>PLEASE CONTINUE EVEN IF ALL TESTS IN THIS SECTION DID NOT PASS.</t>
   </si>
   <si>
-    <t>DO NOT CONTINUE IF ANY TESTS IN THIS SECTION DID NOT PASS! CONTACT THE TESTING COORDINATOR.</t>
-  </si>
-  <si>
     <t>E-1.1.3.1</t>
   </si>
   <si>
@@ -659,13 +653,302 @@
   </si>
   <si>
     <t>E-1.1.5.4</t>
+  </si>
+  <si>
+    <t>E-1.1.11</t>
+  </si>
+  <si>
+    <t>E-1.1.12</t>
+  </si>
+  <si>
+    <t>AquaLite + Micro Expander Option</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>NEW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display Ok beneath. </t>
+  </si>
+  <si>
+    <t>DO NOT CONTINUE IF ANY TESTS IN THIS SECTION DID NOT PASS! CONTACT THE TESTING COORDINATOR, Sean Harrington sph@1stage.com.</t>
+  </si>
+  <si>
+    <t>System should show each line typed, and move down to the empty line beneath.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN after each line:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10 REM Testing SAVE
+20 CLS
+30 PRINT “Hello”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SAVE "TEST01.BAS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t>The cursor should move down one row and display Ok beneath. In the USB &gt; ROMS folder within the AquaLite program folder, there should be a new file named TEST01.BAS.</t>
+  </si>
+  <si>
+    <t>System should show all three lines in the program and display Ok beneath.</t>
+  </si>
+  <si>
+    <t>System should display a brief listing of the contents of the folder, and the "TEST01.BAS" file should be lised among those files. Note that the RETURN/ENTER key may have to be pressed one or more times to scroll through the full list of contents.</t>
+  </si>
+  <si>
+    <t>System should display a detailed listing of the contents of the USB &gt; ROMS folder within the AquaLite program folder, followed by Ok beneath. Note that the RETURN/ENTER key may have to be pressed one or more times to scroll through the full list of contents.</t>
+  </si>
+  <si>
+    <t>Test SAVE a BASIC file</t>
+  </si>
+  <si>
+    <t>E-1.1.6.1</t>
+  </si>
+  <si>
+    <t>E-1.1.6.2</t>
+  </si>
+  <si>
+    <t>E-1.1.6.3</t>
+  </si>
+  <si>
+    <t>E-1.1.6.4</t>
+  </si>
+  <si>
+    <t>E-1.1.6.5</t>
+  </si>
+  <si>
+    <t>Test LOAD a BASIC file</t>
+  </si>
+  <si>
+    <t>E-1.1.7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display NO PROGRAM LINES with Ok beneath. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOAD "TEST01.BAS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t>System should show all three lines in the program listed in test E-1.1.6.2 and display Ok beneath.</t>
+  </si>
+  <si>
+    <t>E-1.1.7.2</t>
+  </si>
+  <si>
+    <t>E-1.1.7.3</t>
+  </si>
+  <si>
+    <t>E-1.1.7.4</t>
+  </si>
+  <si>
+    <t>Test RUN a BASIC file</t>
+  </si>
+  <si>
+    <t>E-1.1.8.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RUN "TEST01.BAS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should clear the screen, print Hello at the top, and display Ok beneath. </t>
+  </si>
+  <si>
+    <t>E-1.1.8.2</t>
+  </si>
+  <si>
+    <t>Test DEL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEL "TEST01.BAS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.9.1</t>
+  </si>
+  <si>
+    <t>E-1.1.9.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should display a brief listing of the contents of the folder, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the "TEST01.BAS" file SHOULD NOT be lised among those files.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note that the RETURN/ENTER key may have to be pressed one or more times to scroll through the full list of contents.</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,6 +1009,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -741,7 +1037,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1030,19 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1059,7 +1342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1096,9 +1379,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1107,13 +1387,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1136,16 +1410,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1172,6 +1443,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1536,10 +1831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7D3E11-A3ED-4CC5-A1AF-BE2B1210CD44}">
-  <dimension ref="A1:I115"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,20 +1850,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1874,9 @@
       <c r="C5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="42" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1609,27 +1909,27 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="20"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="11"/>
@@ -1642,13 +1942,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="11"/>
@@ -1661,13 +1961,13 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="11"/>
@@ -1680,13 +1980,13 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="11"/>
@@ -1699,13 +1999,13 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="11"/>
@@ -1718,41 +2018,41 @@
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="28"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="5"/>
@@ -1762,619 +2062,777 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C20" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I20" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="B21" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="42" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="43"/>
+      <c r="B22" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>38</v>
+      </c>
       <c r="D22" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="43"/>
+      <c r="A23" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="39"/>
       <c r="D23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="43"/>
+      <c r="A24" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="39"/>
       <c r="D24" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="44"/>
+      <c r="A25" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>48</v>
-      </c>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="39"/>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="42" t="s">
-        <v>49</v>
-      </c>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="40"/>
       <c r="D27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="44"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>51</v>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
-      <c r="I29" s="22"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>68</v>
-      </c>
+      <c r="A30" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="40"/>
       <c r="D30" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
-      <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="43"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D31" s="8" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="22"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="43"/>
+      <c r="A32" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="D32" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="22"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="44"/>
+      <c r="A33" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="39"/>
       <c r="D33" s="8" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="I33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="39"/>
       <c r="D34" s="8" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="40"/>
       <c r="D35" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>51</v>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
-      <c r="I36" s="22"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="A37" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="39"/>
       <c r="D37" s="8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
-      <c r="I37" s="22"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="39"/>
+      <c r="I37" s="20"/>
+    </row>
+    <row r="38" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="20"/>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="40"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="D39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="20"/>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="20"/>
+    </row>
+    <row r="41" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="20"/>
+    </row>
+    <row r="42" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="20"/>
+    </row>
+    <row r="45" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="20"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="20"/>
+    </row>
+    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="20"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="32"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
@@ -2956,19 +3414,210 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="35" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC288F8-A604-4910-8BCA-38B2C1E3BF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E73FD-C181-4D04-A8ED-2FBB3D08F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -409,9 +409,6 @@
     <t>The cursor should move down one row and display Ok beneath.</t>
   </si>
   <si>
-    <t>System should display a detailed listing of the contents of the USB &gt; ROMS folder within the AquaLite program folder, followed by Ok beneath. Note that the RETURN/ENTER key may have to be pressed one or more times to scroll past the full list of contents.</t>
-  </si>
-  <si>
     <t>PLEASE CONTINUE EVEN IF ALL TESTS IN THIS SECTION DID NOT PASS.</t>
   </si>
   <si>
@@ -941,7 +938,163 @@
     <t>E-1.1.10.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Test </t>
+    <t>Test SAVE a BIN file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RUN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should print Done and display Ok beneath the program listing. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN after each line:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10 REM Testing SAVE BIN
+20 POKE $8000,97,98,99,100
+30 PRINT “Done”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>CD "/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SAVE "POKE.BIN", $8000, 4</t>
+    </r>
+  </si>
+  <si>
+    <t>System should display a detailed listing of the contents of the USB folder within the AquaLite program folder, and the file named "POKE.BIN" should be listed in the contents. Note that the RETURN/ENTER key may have to be pressed one or more times to scroll past the full list of contents.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LOAD "POKE.BIN", $3242</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in the middle of the screen, with Ok beneath the text you just typed.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test LOAD a BIN file</t>
+  </si>
+  <si>
+    <t>E-1.1.10.2</t>
+  </si>
+  <si>
+    <t>E-1.1.10.3</t>
+  </si>
+  <si>
+    <t>E-1.1.10.4</t>
+  </si>
+  <si>
+    <t>E-1.1.10.5</t>
+  </si>
+  <si>
+    <t>E-1.1.10.6</t>
+  </si>
+  <si>
+    <t>E-1.1.10.7</t>
+  </si>
+  <si>
+    <t>E-1.1.11.1</t>
+  </si>
+  <si>
+    <t>E-1.1.11.2</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1987,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +2028,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2041,7 +2194,7 @@
     </row>
     <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -2267,7 +2420,7 @@
     </row>
     <row r="29" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>13</v>
@@ -2288,7 +2441,7 @@
     </row>
     <row r="30" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>13</v>
@@ -2307,7 +2460,7 @@
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>13</v>
@@ -2319,7 +2472,7 @@
         <v>58</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="10"/>
@@ -2328,19 +2481,19 @@
     </row>
     <row r="32" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="10"/>
@@ -2349,17 +2502,17 @@
     </row>
     <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10"/>
@@ -2368,17 +2521,17 @@
     </row>
     <row r="34" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="39"/>
       <c r="D34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10"/>
@@ -2387,17 +2540,17 @@
     </row>
     <row r="35" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="40"/>
       <c r="D35" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="10"/>
@@ -2406,19 +2559,19 @@
     </row>
     <row r="36" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="10"/>
@@ -2427,17 +2580,17 @@
     </row>
     <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="10"/>
@@ -2446,17 +2599,17 @@
     </row>
     <row r="38" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="10"/>
@@ -2465,17 +2618,17 @@
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C39" s="39"/>
       <c r="D39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="10"/>
@@ -2484,7 +2637,7 @@
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" s="46" t="s">
         <v>13</v>
@@ -2494,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
@@ -2503,19 +2656,19 @@
     </row>
     <row r="41" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="10"/>
@@ -2524,17 +2677,17 @@
     </row>
     <row r="42" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="39"/>
       <c r="D42" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="10"/>
@@ -2543,17 +2696,17 @@
     </row>
     <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="39"/>
       <c r="D43" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="10"/>
@@ -2562,17 +2715,17 @@
     </row>
     <row r="44" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C44" s="40"/>
       <c r="D44" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="10"/>
@@ -2581,19 +2734,19 @@
     </row>
     <row r="45" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="10"/>
@@ -2602,17 +2755,17 @@
     </row>
     <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C46" s="40"/>
       <c r="D46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
@@ -2621,19 +2774,19 @@
     </row>
     <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47" s="46" t="s">
         <v>13</v>
       </c>
       <c r="C47" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>110</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="10"/>
@@ -2642,7 +2795,7 @@
     </row>
     <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="46" t="s">
         <v>13</v>
@@ -2652,28 +2805,28 @@
         <v>52</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="10"/>
@@ -2682,103 +2835,93 @@
     </row>
     <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="B50" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C50" s="39"/>
       <c r="D50" s="8" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B51" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C51" s="39"/>
       <c r="D51" s="8" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="B52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C52" s="39"/>
       <c r="D52" s="8" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B53" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C53" s="39"/>
       <c r="D53" s="8" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="B54" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C54" s="39"/>
       <c r="D54" s="8" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="10"/>
@@ -2787,102 +2930,153 @@
     </row>
     <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="B55" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="C55" s="40"/>
       <c r="D55" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="36"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B56" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="20"/>
+    </row>
+    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="20"/>
+    </row>
+    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="20"/>
+    </row>
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="20"/>
+    </row>
+    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="20"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="36"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
@@ -3594,12 +3788,62 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="A62:I62"/>
     <mergeCell ref="C22:C27"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C32:C35"/>
@@ -3607,6 +3851,8 @@
     <mergeCell ref="C41:C44"/>
     <mergeCell ref="C45:C46"/>
     <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C57"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3615,8 +3861,9 @@
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="35" max="16383" man="1"/>
+    <brk id="57" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782E73FD-C181-4D04-A8ED-2FBB3D08F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01639EF2-569F-411E-9D36-7079239474D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Launch AquaLite v1.36. (aqualite.exe)</t>
-  </si>
-  <si>
-    <t>System should boot into "BASIC Press RETURN key to start" flashing screen.</t>
   </si>
   <si>
     <t>System should beep and reboot into "Aquarius USB BASIC, v1.3" screen.</t>
@@ -652,12 +649,6 @@
     <t>E-1.1.5.4</t>
   </si>
   <si>
-    <t>E-1.1.11</t>
-  </si>
-  <si>
-    <t>E-1.1.12</t>
-  </si>
-  <si>
     <t>AquaLite + Micro Expander Option</t>
   </si>
   <si>
@@ -1095,13 +1086,645 @@
   </si>
   <si>
     <t>E-1.1.11.2</t>
+  </si>
+  <si>
+    <t>Test DEBUG</t>
+  </si>
+  <si>
+    <t>E-1.1.12.1</t>
+  </si>
+  <si>
+    <t>Test RUN a ROM file</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>RUN "SNAFU.ROM"</t>
+    </r>
+  </si>
+  <si>
+    <t>System should load the SNAFU game ROM and display the SNAFU title screen.</t>
+  </si>
+  <si>
+    <t>E-1.1.12.2</t>
+  </si>
+  <si>
+    <t>E-1.1.12.3</t>
+  </si>
+  <si>
+    <t>E-1.1.12.4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>DEBUG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  and hit RETURN</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.13.1</t>
+  </si>
+  <si>
+    <t>The AQUBUG screen should pop up with white text on a blue background.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the AQUBUG screen type the letter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+  </si>
+  <si>
+    <t>System should return to the USB BASIC command screen, showing the DEBUG command with Ok beneath.</t>
+  </si>
+  <si>
+    <t>E-1.1.13.2</t>
+  </si>
+  <si>
+    <t>Test HEX$</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT HEX$(12288)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display 3000 on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT HEX$(-123)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display FF85 on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT HEX$(65535)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display FFFF on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <t>Test JOY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and try to type RETURN and the 1 key at about the same time (maybe a slight delay before the 1 key):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT JOY(0)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display 64 on the next line with Ok beneath. If you weren't able to get it to work exactly right, a 0 might be displayed instead of the 64. Try a couple of times to get it to work, if you can. </t>
+  </si>
+  <si>
+    <t>Test IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display 247 on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT IN($FF)</t>
+    </r>
+  </si>
+  <si>
+    <t>Test PSG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSG 8,15,0,148,1,1,7,56</t>
+    </r>
+  </si>
+  <si>
+    <t>System should stop playing the tone.</t>
+  </si>
+  <si>
+    <t>System should play a Db4 tone continuously.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PSG 8,0,7,0</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.1.14.1</t>
+  </si>
+  <si>
+    <t>E-1.1.14.2</t>
+  </si>
+  <si>
+    <t>E-1.1.14.3</t>
+  </si>
+  <si>
+    <t>E-1.1.15</t>
+  </si>
+  <si>
+    <t>E-1.1.16</t>
+  </si>
+  <si>
+    <t>E-1.1.17.1</t>
+  </si>
+  <si>
+    <t>E-1.1.17.2</t>
+  </si>
+  <si>
+    <t>Test OUT</t>
+  </si>
+  <si>
+    <t>System should play a Db4 tone continuously and print Ok beneath.</t>
+  </si>
+  <si>
+    <t>System should print Ok after each RETURN, and then should stop playing the tone after the second.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN after each line:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>OUT 247,8
+OUT $F6,0</t>
+    </r>
+  </si>
+  <si>
+    <t>Test EDIT</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10 REM Testing EDIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>EDIT 10</t>
+    </r>
+  </si>
+  <si>
+    <t>System should list the previously entered line 10 with a blue cursor and white text positioned over the R in the REM command.</t>
+  </si>
+  <si>
+    <t>System should display line 10 with a SPACE between the 10 and the REM command.</t>
+  </si>
+  <si>
+    <t>E-1.1.18.1</t>
+  </si>
+  <si>
+    <t>E-1.1.18.2</t>
+  </si>
+  <si>
+    <t>E-1.1.19.1</t>
+  </si>
+  <si>
+    <t>Within the line 10 edit with the cursor on the R of REM, press the SPACE bar to insert a space between the line number 10 and the REM statement.</t>
+  </si>
+  <si>
+    <t>System should list the previously entered line 10 with a blue cursor and white text positioned over the SPACE after the word Testing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the line 10 edit with the cursor on the SPACE between the word Testing and EDIT, press the DELETE/BACKSPACE key three times to delete the letters "ing" at the end of the word Testing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the line 10 edit with the cursor on the R of REM, CTRL + / eleven times so the cursor is on top of the SPACE after the word Testing. </t>
+  </si>
+  <si>
+    <t>System should list the previously entered line 10 with a blue cursor and white text positioned over the SPACE before the word EDIT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the line 10 edit with the cursor on the SPACE between the word Test and EDIT, press CTRL + P eight times so the cursor is over the letter R in REM, and then hit RETURN/ENTER. </t>
+  </si>
+  <si>
+    <t>The cursor should go to the line beneath line 10, and should NOT display Ok beneath.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LIST 10</t>
+    </r>
+  </si>
+  <si>
+    <t>System should display a blank line, then list line 10 again, with Ok beneath.</t>
+  </si>
+  <si>
+    <t>E-1.1.19.2</t>
+  </si>
+  <si>
+    <t>E-1.1.19.3</t>
+  </si>
+  <si>
+    <t>E-1.1.19.4</t>
+  </si>
+  <si>
+    <t>E-1.1.19.5</t>
+  </si>
+  <si>
+    <t>E-1.1.19.6</t>
+  </si>
+  <si>
+    <t>E-1.1.19.7</t>
+  </si>
+  <si>
+    <t>E-1.1.19.8</t>
+  </si>
+  <si>
+    <t>Test LOCATE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN after each line:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10 CLS
+20 LOCATE 20,12
+30 PRINT CHR$(KEY(0))</t>
+    </r>
+  </si>
+  <si>
+    <t>System should move the cursor to the middle of the screen.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With the cursor in the middle of the screen, press the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> key.</t>
+    </r>
+  </si>
+  <si>
+    <t>System should display a "g" in the middle of the screen, then go to the next line and print Ok beneath.</t>
+  </si>
+  <si>
+    <t>E-1.1.20.1</t>
+  </si>
+  <si>
+    <t>E-1.1.20.2</t>
+  </si>
+  <si>
+    <t>E-1.1.20.3</t>
+  </si>
+  <si>
+    <t>E-1.1.20.4</t>
+  </si>
+  <si>
+    <t>Test NEW commands</t>
+  </si>
+  <si>
+    <t>E-1.2.0</t>
+  </si>
+  <si>
+    <t>E-1.2.1.1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>POKE 12945,97,98,99,100</t>
+    </r>
+  </si>
+  <si>
+    <t>System should clear the screen and show Ok.</t>
+  </si>
+  <si>
+    <t>Test POKE range</t>
+  </si>
+  <si>
+    <t>E-1.1.2.1</t>
+  </si>
+  <si>
+    <t>E-1.1.2.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>POKE $3291 TO $3299,97</t>
+    </r>
+  </si>
+  <si>
+    <t>Test POKE step</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>POKE $3291,97,STEP 40,97,STEP 40,97</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The screen should print </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (three letter a's) in a downward right diagonal towards the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test POKE auto-increment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The screen should print </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaaaaaaaa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (nine letter a's) in a row towards the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The screen should print </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a row towards the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Legacy Commands</t>
+  </si>
+  <si>
+    <t>New Commands</t>
+  </si>
+  <si>
+    <t>Test COPY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should boot into "BASIC Press RETURN key to start" flashing screen. Menubar should say </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AquaLite v1.36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1175,6 +1798,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Eras Demi ITC"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1190,7 +1819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1479,6 +2108,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1495,7 +2137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1511,7 +2153,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1535,7 +2176,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,48 +2197,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,6 +2220,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1987,10 +2640,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,20 +2656,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2025,185 +2678,190 @@
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2215,9 +2873,11 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="35"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -2226,1077 +2886,1300 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="F19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="37"/>
+      <c r="D23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="38" t="s">
+      <c r="B27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="18"/>
+    </row>
+    <row r="28" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="37"/>
+      <c r="D33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="34" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="37"/>
+      <c r="D37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="18"/>
+    </row>
+    <row r="45" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="18"/>
+    </row>
+    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="18"/>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="18"/>
+    </row>
+    <row r="48" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="51" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="18"/>
+    </row>
+    <row r="52" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="18"/>
+    </row>
+    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="E55" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="18"/>
+    </row>
+    <row r="56" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="18"/>
+    </row>
+    <row r="57" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="E58" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="37"/>
+      <c r="D59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="18"/>
+    </row>
+    <row r="61" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="18"/>
+    </row>
+    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="18"/>
+    </row>
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="18"/>
+    </row>
+    <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="18"/>
+    </row>
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="18"/>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="18"/>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="18"/>
+    </row>
+    <row r="72" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="18"/>
+    </row>
+    <row r="74" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="18"/>
+    </row>
+    <row r="75" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="18"/>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="18"/>
+    </row>
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="37"/>
+      <c r="D77" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="37"/>
+      <c r="D78" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="18"/>
+    </row>
+    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="18"/>
+    </row>
+    <row r="81" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="37"/>
+      <c r="D81" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="18"/>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="18"/>
+    </row>
+    <row r="83" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="18"/>
+    </row>
+    <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="20"/>
-    </row>
-    <row r="41" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="20"/>
-    </row>
-    <row r="42" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="20"/>
-    </row>
-    <row r="43" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="20"/>
-    </row>
-    <row r="44" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="40"/>
-      <c r="D44" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="20"/>
-    </row>
-    <row r="45" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="20"/>
-    </row>
-    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="20"/>
-    </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="20"/>
-    </row>
-    <row r="49" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="20"/>
-    </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="20"/>
-    </row>
-    <row r="51" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="20"/>
-    </row>
-    <row r="52" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="20"/>
-    </row>
-    <row r="53" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="20"/>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="20"/>
-    </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="20"/>
-    </row>
-    <row r="56" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="20"/>
-    </row>
-    <row r="57" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="20"/>
-    </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="20"/>
-    </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A60" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="20"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="29"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="36"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="41"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -3308,9 +4191,11 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+    <row r="86" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="35"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
@@ -3318,255 +4203,498 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="6"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
+      <c r="A88" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="18"/>
+    </row>
+    <row r="90" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="18"/>
+    </row>
+    <row r="91" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="18"/>
+    </row>
+    <row r="92" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="43"/>
+      <c r="D92" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="18"/>
+    </row>
+    <row r="93" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="18"/>
+    </row>
+    <row r="94" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="43"/>
+      <c r="D94" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="18"/>
+    </row>
+    <row r="95" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="18"/>
+    </row>
+    <row r="96" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" s="8"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="18"/>
+    </row>
+    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="18"/>
+    </row>
+    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="18"/>
+    </row>
+    <row r="99" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="18"/>
+    </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B100" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="18"/>
+    </row>
+    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="18"/>
+    </row>
+    <row r="102" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="18"/>
+    </row>
+    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="18"/>
+    </row>
+    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" s="8"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="D106" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="18"/>
+    </row>
+    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="18"/>
+    </row>
+    <row r="108" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="18"/>
+    </row>
+    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B109" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="8"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="18"/>
+    </row>
+    <row r="110" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="46"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
+      <c r="I110" s="51"/>
+    </row>
+    <row r="111" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="40"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40"/>
+      <c r="G111" s="40"/>
+      <c r="H111" s="40"/>
+      <c r="I111" s="41"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
@@ -3648,211 +4776,35 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="6"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="6"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="5"/>
-      <c r="F125" s="6"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="6"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="6"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="6"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="6"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="6"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="D133" s="5"/>
-      <c r="E133" s="5"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="5"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="27">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="C80:C83"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3861,10 +4813,14 @@
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
-    <brk id="35" max="16383" man="1"/>
-    <brk id="57" max="16383" man="1"/>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="34" max="16383" man="1"/>
+    <brk id="56" max="16383" man="1"/>
+    <brk id="79" max="16383" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="3" max="1048575" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01639EF2-569F-411E-9D36-7079239474D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2E4B-D500-4861-9853-2517FC05B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="235">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -1562,12 +1562,6 @@
     <t>Test POKE range</t>
   </si>
   <si>
-    <t>E-1.1.2.1</t>
-  </si>
-  <si>
-    <t>E-1.1.2.2</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
 </t>
@@ -1599,6 +1593,9 @@
       </rPr>
       <t>POKE $3291,97,STEP 40,97,STEP 40,97</t>
     </r>
+  </si>
+  <si>
+    <t>Test POKE auto-increment</t>
   </si>
   <si>
     <r>
@@ -1613,7 +1610,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>aaa</t>
+      <t>aaaaaaaaa</t>
     </r>
     <r>
       <rPr>
@@ -1623,11 +1620,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (three letter a's) in a downward right diagonal towards the middle bottom of the screen.</t>
-    </r>
-  </si>
-  <si>
-    <t>Test POKE auto-increment</t>
+      <t xml:space="preserve"> (nine letter a's) in a row towards the middle bottom of the screen.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1642,7 +1636,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>aaaaaaaaa</t>
+      <t>abcd</t>
     </r>
     <r>
       <rPr>
@@ -1652,12 +1646,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (nine letter a's) in a row towards the middle bottom of the screen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The screen should print </t>
+      <t xml:space="preserve"> in a row towards the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Legacy Commands</t>
+  </si>
+  <si>
+    <t>New Commands</t>
+  </si>
+  <si>
+    <t>Test COPY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should boot into "BASIC Press RETURN key to start" flashing screen. Menubar should say </t>
     </r>
     <r>
       <rPr>
@@ -1668,7 +1674,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>abcd</t>
+      <t>AquaLite v1.36</t>
     </r>
     <r>
       <rPr>
@@ -1678,24 +1684,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in a row towards the middle bottom of the screen.</t>
-    </r>
-  </si>
-  <si>
-    <t>Setup</t>
-  </si>
-  <si>
-    <t>Legacy Commands</t>
-  </si>
-  <si>
-    <t>New Commands</t>
-  </si>
-  <si>
-    <t>Test COPY</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">System should boot into "BASIC Press RETURN key to start" flashing screen. Menubar should say </t>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The screen should print </t>
     </r>
     <r>
       <rPr>
@@ -1706,7 +1700,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>AquaLite v1.36</t>
+      <t>aaa</t>
     </r>
     <r>
       <rPr>
@@ -1716,7 +1710,90 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> (three letter a's) in a downward line at the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test POKE strings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>POKE $3291,"Hubba",STEP 40,"Bubba"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The screen should print the words </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hubba Bubba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> stacked on top of each other at the middle bottom of the screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.2.1.2</t>
+  </si>
+  <si>
+    <t>E-1.2.2.1</t>
+  </si>
+  <si>
+    <t>E-1.2.2.2</t>
+  </si>
+  <si>
+    <t>E-1.2.3.1</t>
+  </si>
+  <si>
+    <t>E-1.2.3.2</t>
+  </si>
+  <si>
+    <t>E-1.2.4.1</t>
+  </si>
+  <si>
+    <t>E-1.2.4.2</t>
+  </si>
+  <si>
+    <t>The text at the top of the screen ("Copyright © 1982 by Microsoft, Inc S2" &amp; "USB BASIC v1.3" should be duplicated in the middle of the screen, with the Ok beneath the COPY command near the top.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>COPY $3000,$3000+440,120</t>
     </r>
   </si>
 </sst>
@@ -2642,8 +2719,8 @@
   </sheetPr>
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A100" sqref="A99:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2763,7 @@
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B7" s="35"/>
     </row>
@@ -2767,7 +2844,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
@@ -2875,7 +2952,7 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B18" s="35"/>
       <c r="D18" s="5"/>
@@ -4193,7 +4270,7 @@
     </row>
     <row r="86" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B86" s="35"/>
       <c r="D86" s="5"/>
@@ -4257,7 +4334,7 @@
         <v>13</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>38</v>
@@ -4272,7 +4349,7 @@
     </row>
     <row r="90" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="29" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="B90" s="30" t="s">
         <v>13</v>
@@ -4282,7 +4359,7 @@
         <v>208</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F90" s="8"/>
       <c r="G90" s="9"/>
@@ -4291,7 +4368,7 @@
     </row>
     <row r="91" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B91" s="30" t="s">
         <v>13</v>
@@ -4312,17 +4389,17 @@
     </row>
     <row r="92" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="29" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="B92" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C92" s="43"/>
       <c r="D92" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F92" s="8"/>
       <c r="G92" s="9"/>
@@ -4331,13 +4408,13 @@
     </row>
     <row r="93" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A93" s="29" t="s">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="B93" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>64</v>
@@ -4352,97 +4429,97 @@
     </row>
     <row r="94" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="29" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="B94" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C94" s="43"/>
       <c r="D94" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F94" s="8"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="18"/>
     </row>
-    <row r="95" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A95" s="29" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="B95" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="36" t="s">
         <v>223</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>24</v>
+        <v>64</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="F95" s="8"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="18"/>
     </row>
-    <row r="96" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="29" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B96" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="8"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>198</v>
+        <v>224</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="18"/>
     </row>
-    <row r="97" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="29" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="8"/>
+      <c r="C97" s="36" t="s">
+        <v>220</v>
+      </c>
       <c r="D97" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>200</v>
+        <v>38</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="F97" s="8"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="18"/>
     </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="29" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>196</v>
-      </c>
+      <c r="C98" s="38"/>
       <c r="D98" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>78</v>
+        <v>234</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="F98" s="8"/>
       <c r="G98" s="9"/>
@@ -4451,12 +4528,14 @@
     </row>
     <row r="99" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A99" s="29" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="8"/>
+      <c r="C99" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D99" s="7" t="s">
         <v>112</v>
       </c>
@@ -4470,12 +4549,14 @@
     </row>
     <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="8"/>
+      <c r="C100" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D100" s="7" t="s">
         <v>199</v>
       </c>
@@ -4494,8 +4575,8 @@
       <c r="B101" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="8" t="s">
-        <v>196</v>
+      <c r="C101" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>197</v>
@@ -4515,7 +4596,9 @@
       <c r="B102" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="8"/>
+      <c r="C102" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D102" s="7" t="s">
         <v>112</v>
       </c>
@@ -4534,7 +4617,9 @@
       <c r="B103" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="8"/>
+      <c r="C103" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D103" s="7" t="s">
         <v>199</v>
       </c>
@@ -4553,8 +4638,8 @@
       <c r="B104" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="8" t="s">
-        <v>196</v>
+      <c r="C104" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>197</v>
@@ -4574,7 +4659,9 @@
       <c r="B105" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="8"/>
+      <c r="C105" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D105" s="7" t="s">
         <v>112</v>
       </c>
@@ -4593,7 +4680,9 @@
       <c r="B106" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="8"/>
+      <c r="C106" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D106" s="7" t="s">
         <v>199</v>
       </c>
@@ -4612,8 +4701,8 @@
       <c r="B107" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>196</v>
+      <c r="C107" s="46" t="s">
+        <v>223</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>197</v>
@@ -4633,7 +4722,9 @@
       <c r="B108" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="8"/>
+      <c r="C108" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D108" s="7" t="s">
         <v>112</v>
       </c>
@@ -4652,7 +4743,9 @@
       <c r="B109" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="8"/>
+      <c r="C109" s="46" t="s">
+        <v>223</v>
+      </c>
       <c r="D109" s="7" t="s">
         <v>199</v>
       </c>
@@ -4777,7 +4870,7 @@
       <c r="I119" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
@@ -4805,6 +4898,8 @@
     <mergeCell ref="C70:C71"/>
     <mergeCell ref="C72:C79"/>
     <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375A2E4B-D500-4861-9853-2517FC05B57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19912D6A-4547-4086-A58E-5BA3D490AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19912D6A-4547-4086-A58E-5BA3D490AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E794EA-99C2-4B72-960B-51EB904702DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$8:$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="278">
   <si>
     <t>Alpha Test Plan</t>
   </si>
@@ -1795,6 +1795,288 @@
       </rPr>
       <t>COPY $3000,$3000+440,120</t>
     </r>
+  </si>
+  <si>
+    <t>Test ATN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT ATN(1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display .785398 on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <t>E-1.2.5.1</t>
+  </si>
+  <si>
+    <t>E-1.2.5.2</t>
+  </si>
+  <si>
+    <t>E-1.2.6.1</t>
+  </si>
+  <si>
+    <t>E-1.2.6.2</t>
+  </si>
+  <si>
+    <t>E-1.2.7.1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>System should clear the screen and show Ok .</t>
+  </si>
+  <si>
+    <t>E-1.2.7.2</t>
+  </si>
+  <si>
+    <t>Test DEC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT DEC("55FF")</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">System should display 22015 on the next line with Ok beneath. </t>
+  </si>
+  <si>
+    <t>Test DEEK</t>
+  </si>
+  <si>
+    <t>E-1.2.8.1</t>
+  </si>
+  <si>
+    <t>E-1.2.8.2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRINT HEX$(DEEK(12288+41))</t>
+    </r>
+  </si>
+  <si>
+    <t>Test DOKE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">DOKE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12288+41,$6948</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the top left of the screen and show Ok beneath the DOKE command line. ($48 is the "H" character and $69 is the "i" character.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System should display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6B4F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the next line with Ok beneath. ($4F is the "O" character and $6B is the "k" character from the top left of the screen.)</t>
+    </r>
+  </si>
+  <si>
+    <t>E-1.2.9.1</t>
+  </si>
+  <si>
+    <t>E-1.2.9.2</t>
+  </si>
+  <si>
+    <t>Test KEY</t>
+  </si>
+  <si>
+    <t>System should display a "m" in the middle of the screen, then go to the next line and print Ok beneath.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN after each line:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10 CLS 42
+20 LOCATE 20,12
+30 PRINT CHR$(KEY(0))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">With the cursor in the middle of the screen, press the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> key (without the SHIFT key pressed).</t>
+    </r>
+  </si>
+  <si>
+    <t>System should clear the screen to GREEN letters on a PURPLE background and move the GREEN cursor to the middle of the screen, waiting for input.</t>
+  </si>
+  <si>
+    <t>E-1.2.10.1</t>
+  </si>
+  <si>
+    <t>E-1.2.10.2</t>
+  </si>
+  <si>
+    <t>E-1.2.10.3</t>
+  </si>
+  <si>
+    <t>E-1.2.10.4</t>
+  </si>
+  <si>
+    <t>E-1.2.10.5</t>
+  </si>
+  <si>
+    <t>E-1.2.10.6</t>
+  </si>
+  <si>
+    <t>E-1.2.10.7</t>
+  </si>
+  <si>
+    <t>E-1.2.10.8</t>
+  </si>
+  <si>
+    <t>E-1.2.10.9</t>
+  </si>
+  <si>
+    <t>E-1.2.10.10</t>
+  </si>
+  <si>
+    <t>E-1.2.10.11</t>
+  </si>
+  <si>
+    <t>Test SDTM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">From the USB BASIC command screen type the code below and hit RETURN:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>SDTM "230517010101"</t>
+    </r>
+  </si>
+  <si>
+    <t>System should display Ok beneath. (Note: On AquaLite, there is no way to actually SET the DateTime, so it will stay set to the hosting computer's system clock.)</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +2178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2185,19 +2467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2214,7 +2483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2300,8 +2569,35 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2312,44 +2608,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,10 +2983,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I119"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A100" sqref="A99:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,20 +2999,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2762,10 +3028,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -2928,17 +3194,17 @@
       <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2951,10 +3217,10 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="48"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
@@ -3015,7 +3281,7 @@
       <c r="B21" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -3036,7 +3302,7 @@
       <c r="B22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
@@ -3055,7 +3321,7 @@
       <c r="B23" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
@@ -3074,7 +3340,7 @@
       <c r="B24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="37"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
@@ -3093,7 +3359,7 @@
       <c r="B25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="7" t="s">
         <v>50</v>
       </c>
@@ -3112,7 +3378,7 @@
       <c r="B26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="38"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -3152,7 +3418,7 @@
       <c r="B28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="45" t="s">
         <v>46</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -3173,7 +3439,7 @@
       <c r="B29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="38"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
@@ -3213,7 +3479,7 @@
       <c r="B31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -3234,7 +3500,7 @@
       <c r="B32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="37"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="7" t="s">
         <v>67</v>
       </c>
@@ -3253,7 +3519,7 @@
       <c r="B33" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="7" t="s">
         <v>70</v>
       </c>
@@ -3272,7 +3538,7 @@
       <c r="B34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="38"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="7" t="s">
         <v>64</v>
       </c>
@@ -3291,7 +3557,7 @@
       <c r="B35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="45" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3312,7 +3578,7 @@
       <c r="B36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="7" t="s">
         <v>79</v>
       </c>
@@ -3331,7 +3597,7 @@
       <c r="B37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="37"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="7" t="s">
         <v>80</v>
       </c>
@@ -3350,7 +3616,7 @@
       <c r="B38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="7" t="s">
         <v>81</v>
       </c>
@@ -3369,7 +3635,7 @@
       <c r="B39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="38"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="7" t="s">
         <v>51</v>
       </c>
@@ -3388,7 +3654,7 @@
       <c r="B40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="45" t="s">
         <v>92</v>
       </c>
       <c r="D40" s="7" t="s">
@@ -3409,7 +3675,7 @@
       <c r="B41" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="7" t="s">
         <v>80</v>
       </c>
@@ -3428,7 +3694,7 @@
       <c r="B42" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="7" t="s">
         <v>95</v>
       </c>
@@ -3447,7 +3713,7 @@
       <c r="B43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="38"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="7" t="s">
         <v>80</v>
       </c>
@@ -3466,7 +3732,7 @@
       <c r="B44" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="45" t="s">
         <v>100</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3487,7 +3753,7 @@
       <c r="B45" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="38"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="7" t="s">
         <v>102</v>
       </c>
@@ -3506,7 +3772,7 @@
       <c r="B46" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="45" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="7" t="s">
@@ -3527,7 +3793,7 @@
       <c r="B47" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="38"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="7" t="s">
         <v>51</v>
       </c>
@@ -3546,7 +3812,7 @@
       <c r="B48" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="45" t="s">
         <v>111</v>
       </c>
       <c r="D48" s="7" t="s">
@@ -3567,7 +3833,7 @@
       <c r="B49" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="7" t="s">
         <v>114</v>
       </c>
@@ -3586,7 +3852,7 @@
       <c r="B50" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="7" t="s">
         <v>80</v>
       </c>
@@ -3605,7 +3871,7 @@
       <c r="B51" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="37"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="7" t="s">
         <v>112</v>
       </c>
@@ -3624,7 +3890,7 @@
       <c r="B52" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="37"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="7" t="s">
         <v>115</v>
       </c>
@@ -3643,7 +3909,7 @@
       <c r="B53" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="7" t="s">
         <v>116</v>
       </c>
@@ -3662,7 +3928,7 @@
       <c r="B54" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="38"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="7" t="s">
         <v>57</v>
       </c>
@@ -3681,7 +3947,7 @@
       <c r="B55" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="45" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="7" t="s">
@@ -3702,7 +3968,7 @@
       <c r="B56" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="38"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="7" t="s">
         <v>118</v>
       </c>
@@ -3721,7 +3987,7 @@
       <c r="B57" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D57" s="7" t="s">
@@ -3742,7 +4008,7 @@
       <c r="B58" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="7" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +4027,7 @@
       <c r="B59" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="7" t="s">
         <v>132</v>
       </c>
@@ -3780,7 +4046,7 @@
       <c r="B60" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="38"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="7" t="s">
         <v>38</v>
       </c>
@@ -3799,7 +4065,7 @@
       <c r="B61" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="45" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -3820,7 +4086,7 @@
       <c r="B62" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="38"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="7" t="s">
         <v>140</v>
       </c>
@@ -3839,7 +4105,7 @@
       <c r="B63" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="45" t="s">
         <v>143</v>
       </c>
       <c r="D63" s="7" t="s">
@@ -3860,7 +4126,7 @@
       <c r="B64" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="7" t="s">
         <v>146</v>
       </c>
@@ -3879,7 +4145,7 @@
       <c r="B65" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="38"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="7" t="s">
         <v>148</v>
       </c>
@@ -3940,7 +4206,7 @@
       <c r="B68" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="45" t="s">
         <v>156</v>
       </c>
       <c r="D68" s="7" t="s">
@@ -3961,7 +4227,7 @@
       <c r="B69" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="38"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="7" t="s">
         <v>160</v>
       </c>
@@ -3980,7 +4246,7 @@
       <c r="B70" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="45" t="s">
         <v>168</v>
       </c>
       <c r="D70" s="7" t="s">
@@ -4001,7 +4267,7 @@
       <c r="B71" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="38"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="7" t="s">
         <v>171</v>
       </c>
@@ -4020,7 +4286,7 @@
       <c r="B72" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="45" t="s">
         <v>172</v>
       </c>
       <c r="D72" s="7" t="s">
@@ -4041,7 +4307,7 @@
       <c r="B73" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="37"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="7" t="s">
         <v>173</v>
       </c>
@@ -4060,7 +4326,7 @@
       <c r="B74" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="37"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="7" t="s">
         <v>174</v>
       </c>
@@ -4079,7 +4345,7 @@
       <c r="B75" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="37"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="7" t="s">
         <v>180</v>
       </c>
@@ -4098,7 +4364,7 @@
       <c r="B76" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="37"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="7" t="s">
         <v>183</v>
       </c>
@@ -4117,7 +4383,7 @@
       <c r="B77" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="37"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="7" t="s">
         <v>182</v>
       </c>
@@ -4136,7 +4402,7 @@
       <c r="B78" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="7" t="s">
         <v>185</v>
       </c>
@@ -4155,7 +4421,7 @@
       <c r="B79" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="38"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="7" t="s">
         <v>187</v>
       </c>
@@ -4174,7 +4440,7 @@
       <c r="B80" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="45" t="s">
         <v>196</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -4195,7 +4461,7 @@
       <c r="B81" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="37"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="7" t="s">
         <v>112</v>
       </c>
@@ -4214,7 +4480,7 @@
       <c r="B82" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="37"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="7" t="s">
         <v>199</v>
       </c>
@@ -4233,7 +4499,7 @@
       <c r="B83" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="38"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="7" t="s">
         <v>38</v>
       </c>
@@ -4246,17 +4512,17 @@
       <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B84" s="40"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="40"/>
-      <c r="H84" s="40"/>
-      <c r="I84" s="41"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="43"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
@@ -4269,10 +4535,10 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="35"/>
+      <c r="B86" s="48"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="6"/>
@@ -4333,7 +4599,7 @@
       <c r="B89" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="49" t="s">
         <v>214</v>
       </c>
       <c r="D89" s="7" t="s">
@@ -4354,7 +4620,7 @@
       <c r="B90" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C90" s="43"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="7" t="s">
         <v>208</v>
       </c>
@@ -4373,7 +4639,7 @@
       <c r="B91" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="49" t="s">
         <v>210</v>
       </c>
       <c r="D91" s="7" t="s">
@@ -4394,7 +4660,7 @@
       <c r="B92" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="43"/>
+      <c r="C92" s="50"/>
       <c r="D92" s="7" t="s">
         <v>211</v>
       </c>
@@ -4413,7 +4679,7 @@
       <c r="B93" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="49" t="s">
         <v>212</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -4434,7 +4700,7 @@
       <c r="B94" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="43"/>
+      <c r="C94" s="50"/>
       <c r="D94" s="7" t="s">
         <v>213</v>
       </c>
@@ -4453,7 +4719,7 @@
       <c r="B95" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="45" t="s">
         <v>223</v>
       </c>
       <c r="D95" s="7" t="s">
@@ -4474,7 +4740,7 @@
       <c r="B96" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C96" s="38"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="7" t="s">
         <v>224</v>
       </c>
@@ -4488,12 +4754,12 @@
     </row>
     <row r="97" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="29" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="B97" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="45" t="s">
         <v>220</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -4509,12 +4775,12 @@
     </row>
     <row r="98" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="29" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="B98" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C98" s="38"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="7" t="s">
         <v>234</v>
       </c>
@@ -4526,126 +4792,120 @@
       <c r="H98" s="9"/>
       <c r="I98" s="18"/>
     </row>
-    <row r="99" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="29" t="s">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="B99" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C99" s="46" t="s">
-        <v>223</v>
+      <c r="C99" s="45" t="s">
+        <v>235</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>198</v>
+        <v>38</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>24</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="18"/>
     </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="29" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="B100" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C100" s="47"/>
       <c r="D100" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="F100" s="8"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="18"/>
     </row>
-    <row r="101" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A101" s="29" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B101" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C101" s="46" t="s">
-        <v>223</v>
+      <c r="C101" s="45" t="s">
+        <v>246</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="F101" s="8"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="18"/>
     </row>
-    <row r="102" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="29" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="B102" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C102" s="47"/>
       <c r="D102" s="7" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="F102" s="8"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="18"/>
     </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A103" s="29" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="46" t="s">
-        <v>223</v>
+      <c r="C103" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F103" s="8"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="18"/>
     </row>
-    <row r="104" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="29" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="B104" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C104" s="47"/>
       <c r="D104" s="7" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>78</v>
+        <v>256</v>
       </c>
       <c r="F104" s="8"/>
       <c r="G104" s="9"/>
@@ -4654,223 +4914,479 @@
     </row>
     <row r="105" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A105" s="29" t="s">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="B105" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="46" t="s">
-        <v>223</v>
+      <c r="C105" s="45" t="s">
+        <v>253</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="F105" s="8"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="29" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="B106" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C106" s="47"/>
       <c r="D106" s="7" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F106" s="8"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="18"/>
     </row>
-    <row r="107" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A107" s="29" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="B107" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="46" t="s">
-        <v>223</v>
+      <c r="C107" s="45" t="s">
+        <v>259</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="F107" s="8"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="18"/>
     </row>
-    <row r="108" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="29" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="B108" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C108" s="46"/>
       <c r="D108" s="7" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="F108" s="8"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="18"/>
     </row>
-    <row r="109" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="B109" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="46" t="s">
-        <v>223</v>
-      </c>
+      <c r="C109" s="46"/>
       <c r="D109" s="7" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="18"/>
     </row>
-    <row r="110" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="47" t="s">
-        <v>204</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="49" t="s">
+    <row r="110" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="47"/>
+      <c r="D110" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="18"/>
+    </row>
+    <row r="111" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F111" s="8"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="18"/>
+    </row>
+    <row r="112" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="35"/>
+      <c r="D112" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F112" s="8"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="18"/>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="35"/>
+      <c r="D113" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" s="8"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="18"/>
+    </row>
+    <row r="114" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="18"/>
+    </row>
+    <row r="115" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B115" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="18"/>
+    </row>
+    <row r="116" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B116" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="18"/>
+    </row>
+    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B117" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="35"/>
+      <c r="D117" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F117" s="8"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="18"/>
+    </row>
+    <row r="118" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="35"/>
+      <c r="D118" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F118" s="8"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="18"/>
+    </row>
+    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B119" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F119" s="8"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="18"/>
+    </row>
+    <row r="120" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="18"/>
+    </row>
+    <row r="121" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="18"/>
+    </row>
+    <row r="122" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="B122" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E110" s="49" t="s">
+      <c r="E122" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F110" s="46"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="50"/>
-      <c r="I110" s="51"/>
-    </row>
-    <row r="111" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="39" t="s">
+      <c r="F122" s="35"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="39"/>
+    </row>
+    <row r="123" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B111" s="40"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="40"/>
-      <c r="H111" s="40"/>
-      <c r="I111" s="41"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="6"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="43"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="34">
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:I16"/>
@@ -4887,19 +5403,6 @@
     <mergeCell ref="C57:C60"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4908,10 +5411,11 @@
     <oddHeader>&amp;F</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="3" manualBreakCount="3">
+  <rowBreaks count="4" manualBreakCount="4">
     <brk id="34" max="16383" man="1"/>
     <brk id="56" max="16383" man="1"/>
     <brk id="79" max="16383" man="1"/>
+    <brk id="106" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1898EEC-093E-4721-86D8-DDF26BCD985F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F7B76-103D-427F-9B90-AD71E508AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -4439,9 +4439,6 @@
     <t>The "Aquarius MX USB BASIC v1.3" screen should be displayed with the correct date and time shown at the bottom of the screen, with seconds ticking by.</t>
   </si>
   <si>
-    <t>The "About USB BASIC" screen should be displayed. Release Date should show "Alpha 2023-05-07".</t>
-  </si>
-  <si>
     <t>E-1.2.15.1</t>
   </si>
   <si>
@@ -4852,6 +4849,9 @@
   </si>
   <si>
     <t>E-7.1.21.4</t>
+  </si>
+  <si>
+    <t>The "About USB BASIC" screen should be displayed. Release Date should show "Alpha 2023-05-09".</t>
   </si>
 </sst>
 </file>
@@ -5384,39 +5384,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -5432,11 +5399,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6145,7 +6145,9 @@
   </sheetPr>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6157,20 +6159,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6188,10 +6190,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -6308,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
@@ -6354,17 +6356,17 @@
       <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -6377,10 +6379,10 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="48"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
@@ -6441,7 +6443,7 @@
       <c r="B21" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -6462,7 +6464,7 @@
       <c r="B22" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="6" t="s">
         <v>33</v>
       </c>
@@ -6481,7 +6483,7 @@
       <c r="B23" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
@@ -6500,7 +6502,7 @@
       <c r="B24" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
@@ -6519,7 +6521,7 @@
       <c r="B25" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
         <v>45</v>
       </c>
@@ -6538,7 +6540,7 @@
       <c r="B26" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="37"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
@@ -6578,7 +6580,7 @@
       <c r="B28" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -6599,7 +6601,7 @@
       <c r="B29" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="42"/>
       <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
@@ -6639,7 +6641,7 @@
       <c r="B31" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -6660,7 +6662,7 @@
       <c r="B32" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="6" t="s">
         <v>62</v>
       </c>
@@ -6679,7 +6681,7 @@
       <c r="B33" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="6" t="s">
         <v>65</v>
       </c>
@@ -6698,7 +6700,7 @@
       <c r="B34" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="37"/>
+      <c r="C34" s="42"/>
       <c r="D34" s="6" t="s">
         <v>59</v>
       </c>
@@ -6717,7 +6719,7 @@
       <c r="B35" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -6738,7 +6740,7 @@
       <c r="B36" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6" t="s">
         <v>73</v>
       </c>
@@ -6757,7 +6759,7 @@
       <c r="B37" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6" t="s">
         <v>74</v>
       </c>
@@ -6776,7 +6778,7 @@
       <c r="B38" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="6" t="s">
         <v>75</v>
       </c>
@@ -6795,7 +6797,7 @@
       <c r="B39" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C39" s="37"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="6" t="s">
         <v>46</v>
       </c>
@@ -6814,7 +6816,7 @@
       <c r="B40" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="6" t="s">
@@ -6835,7 +6837,7 @@
       <c r="B41" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="6" t="s">
         <v>74</v>
       </c>
@@ -6854,7 +6856,7 @@
       <c r="B42" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="6" t="s">
         <v>89</v>
       </c>
@@ -6873,7 +6875,7 @@
       <c r="B43" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="37"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
@@ -6892,7 +6894,7 @@
       <c r="B44" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -6913,7 +6915,7 @@
       <c r="B45" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="6" t="s">
         <v>96</v>
       </c>
@@ -6932,7 +6934,7 @@
       <c r="B46" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -6953,7 +6955,7 @@
       <c r="B47" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="6" t="s">
         <v>46</v>
       </c>
@@ -6972,7 +6974,7 @@
       <c r="B48" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -6993,7 +6995,7 @@
       <c r="B49" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="6" t="s">
         <v>108</v>
       </c>
@@ -7012,7 +7014,7 @@
       <c r="B50" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="6" t="s">
         <v>74</v>
       </c>
@@ -7031,7 +7033,7 @@
       <c r="B51" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>106</v>
       </c>
@@ -7050,7 +7052,7 @@
       <c r="B52" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>109</v>
       </c>
@@ -7069,7 +7071,7 @@
       <c r="B53" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="6" t="s">
         <v>110</v>
       </c>
@@ -7088,7 +7090,7 @@
       <c r="B54" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C54" s="37"/>
+      <c r="C54" s="42"/>
       <c r="D54" s="6" t="s">
         <v>52</v>
       </c>
@@ -7107,7 +7109,7 @@
       <c r="B55" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D55" s="6" t="s">
@@ -7128,7 +7130,7 @@
       <c r="B56" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="6" t="s">
         <v>112</v>
       </c>
@@ -7147,7 +7149,7 @@
       <c r="B57" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -7168,7 +7170,7 @@
       <c r="B58" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="6" t="s">
         <v>48</v>
       </c>
@@ -7187,7 +7189,7 @@
       <c r="B59" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="6" t="s">
         <v>126</v>
       </c>
@@ -7206,7 +7208,7 @@
       <c r="B60" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C60" s="37"/>
+      <c r="C60" s="42"/>
       <c r="D60" s="6" t="s">
         <v>33</v>
       </c>
@@ -7225,7 +7227,7 @@
       <c r="B61" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D61" s="6" t="s">
@@ -7246,7 +7248,7 @@
       <c r="B62" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C62" s="37"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="6" t="s">
         <v>134</v>
       </c>
@@ -7265,7 +7267,7 @@
       <c r="B63" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -7286,7 +7288,7 @@
       <c r="B64" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C64" s="36"/>
+      <c r="C64" s="41"/>
       <c r="D64" s="6" t="s">
         <v>140</v>
       </c>
@@ -7305,7 +7307,7 @@
       <c r="B65" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C65" s="37"/>
+      <c r="C65" s="42"/>
       <c r="D65" s="6" t="s">
         <v>142</v>
       </c>
@@ -7366,7 +7368,7 @@
       <c r="B68" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="6" t="s">
@@ -7387,7 +7389,7 @@
       <c r="B69" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C69" s="37"/>
+      <c r="C69" s="42"/>
       <c r="D69" s="6" t="s">
         <v>154</v>
       </c>
@@ -7406,7 +7408,7 @@
       <c r="B70" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -7427,7 +7429,7 @@
       <c r="B71" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C71" s="37"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="6" t="s">
         <v>165</v>
       </c>
@@ -7446,7 +7448,7 @@
       <c r="B72" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -7467,7 +7469,7 @@
       <c r="B73" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C73" s="36"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="6" t="s">
         <v>167</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="B74" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="6" t="s">
         <v>168</v>
       </c>
@@ -7505,7 +7507,7 @@
       <c r="B75" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>174</v>
       </c>
@@ -7524,7 +7526,7 @@
       <c r="B76" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>177</v>
       </c>
@@ -7543,7 +7545,7 @@
       <c r="B77" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>176</v>
       </c>
@@ -7562,7 +7564,7 @@
       <c r="B78" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="6" t="s">
         <v>179</v>
       </c>
@@ -7581,7 +7583,7 @@
       <c r="B79" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="37"/>
+      <c r="C79" s="42"/>
       <c r="D79" s="6" t="s">
         <v>181</v>
       </c>
@@ -7600,7 +7602,7 @@
       <c r="B80" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C80" s="35" t="s">
+      <c r="C80" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D80" s="6" t="s">
@@ -7621,7 +7623,7 @@
       <c r="B81" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C81" s="36"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="6" t="s">
         <v>106</v>
       </c>
@@ -7640,7 +7642,7 @@
       <c r="B82" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="6" t="s">
         <v>193</v>
       </c>
@@ -7659,7 +7661,7 @@
       <c r="B83" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C83" s="37"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="6" t="s">
         <v>33</v>
       </c>
@@ -7673,19 +7675,19 @@
     </row>
     <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>1062</v>
-      </c>
       <c r="E84" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
@@ -7694,14 +7696,14 @@
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="41"/>
       <c r="D85" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>20</v>
@@ -7713,17 +7715,17 @@
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>1084</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>1085</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -7732,17 +7734,17 @@
     </row>
     <row r="87" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C87" s="37"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -7750,17 +7752,17 @@
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="41"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="46"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -7773,10 +7775,10 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="38"/>
+      <c r="B90" s="48"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
@@ -7837,7 +7839,7 @@
       <c r="B93" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7858,7 +7860,7 @@
       <c r="B94" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="43"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="6" t="s">
         <v>202</v>
       </c>
@@ -7877,7 +7879,7 @@
       <c r="B95" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -7898,7 +7900,7 @@
       <c r="B96" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="43"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="6" t="s">
         <v>205</v>
       </c>
@@ -7917,7 +7919,7 @@
       <c r="B97" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -7938,7 +7940,7 @@
       <c r="B98" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="43"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="6" t="s">
         <v>207</v>
       </c>
@@ -7957,7 +7959,7 @@
       <c r="B99" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -7978,7 +7980,7 @@
       <c r="B100" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C100" s="37"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="6" t="s">
         <v>218</v>
       </c>
@@ -7997,7 +7999,7 @@
       <c r="B101" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -8018,7 +8020,7 @@
       <c r="B102" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C102" s="37"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="6" t="s">
         <v>228</v>
       </c>
@@ -8037,7 +8039,7 @@
       <c r="B103" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -8058,7 +8060,7 @@
       <c r="B104" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C104" s="37"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="6" t="s">
         <v>230</v>
       </c>
@@ -8077,7 +8079,7 @@
       <c r="B105" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -8098,7 +8100,7 @@
       <c r="B106" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C106" s="37"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="6" t="s">
         <v>240</v>
       </c>
@@ -8117,7 +8119,7 @@
       <c r="B107" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -8138,7 +8140,7 @@
       <c r="B108" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C108" s="37"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="6" t="s">
         <v>245</v>
       </c>
@@ -8157,7 +8159,7 @@
       <c r="B109" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -8178,7 +8180,7 @@
       <c r="B110" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C110" s="37"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="6" t="s">
         <v>247</v>
       </c>
@@ -8197,7 +8199,7 @@
       <c r="B111" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -8218,7 +8220,7 @@
       <c r="B112" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C112" s="36"/>
+      <c r="C112" s="41"/>
       <c r="D112" s="6" t="s">
         <v>254</v>
       </c>
@@ -8237,7 +8239,7 @@
       <c r="B113" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="36"/>
+      <c r="C113" s="41"/>
       <c r="D113" s="6" t="s">
         <v>106</v>
       </c>
@@ -8256,7 +8258,7 @@
       <c r="B114" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C114" s="37"/>
+      <c r="C114" s="42"/>
       <c r="D114" s="6" t="s">
         <v>255</v>
       </c>
@@ -8275,7 +8277,7 @@
       <c r="B115" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D115" s="6" t="s">
@@ -8296,7 +8298,7 @@
       <c r="B116" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C116" s="36"/>
+      <c r="C116" s="41"/>
       <c r="D116" s="6" t="s">
         <v>262</v>
       </c>
@@ -8315,7 +8317,7 @@
       <c r="B117" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C117" s="37"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="6" t="s">
         <v>264</v>
       </c>
@@ -8334,7 +8336,7 @@
       <c r="B118" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -8355,7 +8357,7 @@
       <c r="B119" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C119" s="36"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="6" t="s">
         <v>275</v>
       </c>
@@ -8374,7 +8376,7 @@
       <c r="B120" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C120" s="36"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="6" t="s">
         <v>277</v>
       </c>
@@ -8393,7 +8395,7 @@
       <c r="B121" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>279</v>
       </c>
@@ -8412,7 +8414,7 @@
       <c r="B122" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C122" s="37"/>
+      <c r="C122" s="42"/>
       <c r="D122" s="6" t="s">
         <v>278</v>
       </c>
@@ -8431,7 +8433,7 @@
       <c r="B123" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C123" s="35" t="s">
+      <c r="C123" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -8452,7 +8454,7 @@
       <c r="B124" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C124" s="36"/>
+      <c r="C124" s="41"/>
       <c r="D124" s="6" t="s">
         <v>285</v>
       </c>
@@ -8471,7 +8473,7 @@
       <c r="B125" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="6" t="s">
         <v>289</v>
       </c>
@@ -8490,7 +8492,7 @@
       <c r="B126" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C126" s="37"/>
+      <c r="C126" s="42"/>
       <c r="D126" s="6" t="s">
         <v>292</v>
       </c>
@@ -8509,7 +8511,7 @@
       <c r="B127" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C127" s="35" t="s">
+      <c r="C127" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -8530,7 +8532,7 @@
       <c r="B128" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C128" s="36"/>
+      <c r="C128" s="41"/>
       <c r="D128" s="6" t="s">
         <v>59</v>
       </c>
@@ -8549,7 +8551,7 @@
       <c r="B129" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="36"/>
+      <c r="C129" s="41"/>
       <c r="D129" s="6" t="s">
         <v>296</v>
       </c>
@@ -8568,7 +8570,7 @@
       <c r="B130" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>106</v>
       </c>
@@ -8587,7 +8589,7 @@
       <c r="B131" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C131" s="37"/>
+      <c r="C131" s="42"/>
       <c r="D131" s="6" t="s">
         <v>298</v>
       </c>
@@ -8601,13 +8603,13 @@
     </row>
     <row r="132" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C132" s="35" t="s">
-        <v>1022</v>
+      <c r="C132" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>33</v>
@@ -8622,14 +8624,14 @@
     </row>
     <row r="133" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C133" s="36"/>
+      <c r="C133" s="41"/>
       <c r="D133" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>72</v>
@@ -8641,12 +8643,12 @@
     </row>
     <row r="134" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="36"/>
+      <c r="C134" s="41"/>
       <c r="D134" s="6" t="s">
         <v>59</v>
       </c>
@@ -8660,17 +8662,17 @@
     </row>
     <row r="135" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="37"/>
+      <c r="C135" s="42"/>
       <c r="D135" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F135" s="7"/>
       <c r="G135" s="8"/>
@@ -8678,38 +8680,38 @@
       <c r="I135" s="17"/>
     </row>
     <row r="136" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="46" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B136" s="47" t="s">
+      <c r="A136" s="35" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B136" s="36" t="s">
         <v>311</v>
       </c>
       <c r="C136" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D136" s="48" t="s">
+      <c r="D136" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="48" t="s">
+      <c r="E136" s="37" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="33"/>
-      <c r="G136" s="49"/>
-      <c r="H136" s="49"/>
-      <c r="I136" s="50"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="39"/>
     </row>
     <row r="137" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B137" s="51"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="51"/>
-      <c r="I137" s="52"/>
+      <c r="A137" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
+      <c r="I137" s="50"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
@@ -8793,6 +8795,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A137:I137"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
     <mergeCell ref="C132:C135"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
@@ -8809,30 +8835,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="C57:C60"/>
     <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A137:I137"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8872,20 +8874,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -8903,10 +8905,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -9061,7 +9063,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -9107,17 +9109,17 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -9130,10 +9132,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="48"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -9194,7 +9196,7 @@
       <c r="B23" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -9215,7 +9217,7 @@
       <c r="B24" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
@@ -9234,7 +9236,7 @@
       <c r="B25" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
@@ -9253,7 +9255,7 @@
       <c r="B26" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
@@ -9272,7 +9274,7 @@
       <c r="B27" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="6" t="s">
         <v>45</v>
       </c>
@@ -9291,7 +9293,7 @@
       <c r="B28" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="B30" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -9352,7 +9354,7 @@
       <c r="B31" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
@@ -9392,7 +9394,7 @@
       <c r="B33" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -9413,7 +9415,7 @@
       <c r="B34" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="6" t="s">
         <v>62</v>
       </c>
@@ -9432,7 +9434,7 @@
       <c r="B35" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
@@ -9451,7 +9453,7 @@
       <c r="B36" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="6" t="s">
         <v>59</v>
       </c>
@@ -9470,7 +9472,7 @@
       <c r="B37" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -9491,7 +9493,7 @@
       <c r="B38" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="6" t="s">
         <v>73</v>
       </c>
@@ -9510,7 +9512,7 @@
       <c r="B39" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="6" t="s">
         <v>74</v>
       </c>
@@ -9529,7 +9531,7 @@
       <c r="B40" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="6" t="s">
         <v>75</v>
       </c>
@@ -9548,7 +9550,7 @@
       <c r="B41" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="6" t="s">
         <v>46</v>
       </c>
@@ -9567,7 +9569,7 @@
       <c r="B42" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -9588,7 +9590,7 @@
       <c r="B43" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
@@ -9607,7 +9609,7 @@
       <c r="B44" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C44" s="36"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="6" t="s">
         <v>89</v>
       </c>
@@ -9626,7 +9628,7 @@
       <c r="B45" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="6" t="s">
         <v>74</v>
       </c>
@@ -9645,7 +9647,7 @@
       <c r="B46" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -9666,7 +9668,7 @@
       <c r="B47" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="6" t="s">
         <v>96</v>
       </c>
@@ -9685,7 +9687,7 @@
       <c r="B48" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -9706,7 +9708,7 @@
       <c r="B49" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="6" t="s">
         <v>46</v>
       </c>
@@ -9725,7 +9727,7 @@
       <c r="B50" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -9746,7 +9748,7 @@
       <c r="B51" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>108</v>
       </c>
@@ -9765,7 +9767,7 @@
       <c r="B52" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>74</v>
       </c>
@@ -9784,7 +9786,7 @@
       <c r="B53" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="6" t="s">
         <v>106</v>
       </c>
@@ -9803,7 +9805,7 @@
       <c r="B54" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="6" t="s">
         <v>109</v>
       </c>
@@ -9822,7 +9824,7 @@
       <c r="B55" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="6" t="s">
         <v>110</v>
       </c>
@@ -9841,7 +9843,7 @@
       <c r="B56" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="6" t="s">
         <v>52</v>
       </c>
@@ -9860,7 +9862,7 @@
       <c r="B57" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -9881,7 +9883,7 @@
       <c r="B58" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="6" t="s">
         <v>112</v>
       </c>
@@ -9900,7 +9902,7 @@
       <c r="B59" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -9921,7 +9923,7 @@
       <c r="B60" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="6" t="s">
         <v>48</v>
       </c>
@@ -9940,7 +9942,7 @@
       <c r="B61" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C61" s="36"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="6" t="s">
         <v>126</v>
       </c>
@@ -9959,7 +9961,7 @@
       <c r="B62" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C62" s="37"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="6" t="s">
         <v>33</v>
       </c>
@@ -9978,7 +9980,7 @@
       <c r="B63" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -9999,7 +10001,7 @@
       <c r="B64" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="6" t="s">
         <v>134</v>
       </c>
@@ -10018,7 +10020,7 @@
       <c r="B65" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -10039,7 +10041,7 @@
       <c r="B66" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C66" s="36"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="6" t="s">
         <v>140</v>
       </c>
@@ -10058,7 +10060,7 @@
       <c r="B67" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="6" t="s">
         <v>142</v>
       </c>
@@ -10119,7 +10121,7 @@
       <c r="B70" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -10140,7 +10142,7 @@
       <c r="B71" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C71" s="37"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="6" t="s">
         <v>154</v>
       </c>
@@ -10159,7 +10161,7 @@
       <c r="B72" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -10180,7 +10182,7 @@
       <c r="B73" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C73" s="37"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="6" t="s">
         <v>165</v>
       </c>
@@ -10199,7 +10201,7 @@
       <c r="B74" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -10220,7 +10222,7 @@
       <c r="B75" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>167</v>
       </c>
@@ -10239,7 +10241,7 @@
       <c r="B76" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>168</v>
       </c>
@@ -10258,7 +10260,7 @@
       <c r="B77" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>174</v>
       </c>
@@ -10277,7 +10279,7 @@
       <c r="B78" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="6" t="s">
         <v>177</v>
       </c>
@@ -10296,7 +10298,7 @@
       <c r="B79" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C79" s="36"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="6" t="s">
         <v>176</v>
       </c>
@@ -10315,7 +10317,7 @@
       <c r="B80" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C80" s="36"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="6" t="s">
         <v>179</v>
       </c>
@@ -10334,7 +10336,7 @@
       <c r="B81" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C81" s="37"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="6" t="s">
         <v>181</v>
       </c>
@@ -10353,7 +10355,7 @@
       <c r="B82" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -10374,7 +10376,7 @@
       <c r="B83" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="6" t="s">
         <v>106</v>
       </c>
@@ -10393,7 +10395,7 @@
       <c r="B84" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="6" t="s">
         <v>193</v>
       </c>
@@ -10412,7 +10414,7 @@
       <c r="B85" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C85" s="37"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="6" t="s">
         <v>33</v>
       </c>
@@ -10426,19 +10428,19 @@
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>1062</v>
-      </c>
       <c r="E86" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -10447,14 +10449,14 @@
     </row>
     <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>20</v>
@@ -10466,17 +10468,17 @@
     </row>
     <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>1084</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>1085</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
@@ -10485,17 +10487,17 @@
     </row>
     <row r="89" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C89" s="37"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
@@ -10503,17 +10505,17 @@
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="41"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -10526,10 +10528,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="38"/>
+      <c r="B92" s="48"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -10590,7 +10592,7 @@
       <c r="B95" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -10611,7 +10613,7 @@
       <c r="B96" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C96" s="43"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="6" t="s">
         <v>202</v>
       </c>
@@ -10630,7 +10632,7 @@
       <c r="B97" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -10651,7 +10653,7 @@
       <c r="B98" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="43"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="6" t="s">
         <v>205</v>
       </c>
@@ -10670,7 +10672,7 @@
       <c r="B99" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -10691,7 +10693,7 @@
       <c r="B100" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C100" s="43"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="6" t="s">
         <v>207</v>
       </c>
@@ -10710,7 +10712,7 @@
       <c r="B101" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -10731,7 +10733,7 @@
       <c r="B102" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="37"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="6" t="s">
         <v>218</v>
       </c>
@@ -10750,7 +10752,7 @@
       <c r="B103" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -10771,7 +10773,7 @@
       <c r="B104" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C104" s="37"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="6" t="s">
         <v>228</v>
       </c>
@@ -10790,7 +10792,7 @@
       <c r="B105" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -10811,7 +10813,7 @@
       <c r="B106" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C106" s="37"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="6" t="s">
         <v>230</v>
       </c>
@@ -10830,7 +10832,7 @@
       <c r="B107" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -10851,7 +10853,7 @@
       <c r="B108" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C108" s="37"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="6" t="s">
         <v>240</v>
       </c>
@@ -10870,7 +10872,7 @@
       <c r="B109" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -10891,7 +10893,7 @@
       <c r="B110" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="37"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="6" t="s">
         <v>245</v>
       </c>
@@ -10910,7 +10912,7 @@
       <c r="B111" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -10931,7 +10933,7 @@
       <c r="B112" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C112" s="37"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="6" t="s">
         <v>247</v>
       </c>
@@ -10950,7 +10952,7 @@
       <c r="B113" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -10971,7 +10973,7 @@
       <c r="B114" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C114" s="36"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="6" t="s">
         <v>254</v>
       </c>
@@ -10990,7 +10992,7 @@
       <c r="B115" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C115" s="36"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="6" t="s">
         <v>106</v>
       </c>
@@ -11009,7 +11011,7 @@
       <c r="B116" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C116" s="37"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="6" t="s">
         <v>255</v>
       </c>
@@ -11028,7 +11030,7 @@
       <c r="B117" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -11049,7 +11051,7 @@
       <c r="B118" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C118" s="36"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="6" t="s">
         <v>262</v>
       </c>
@@ -11068,7 +11070,7 @@
       <c r="B119" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C119" s="37"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="6" t="s">
         <v>264</v>
       </c>
@@ -11087,7 +11089,7 @@
       <c r="B120" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -11108,7 +11110,7 @@
       <c r="B121" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>275</v>
       </c>
@@ -11127,7 +11129,7 @@
       <c r="B122" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>277</v>
       </c>
@@ -11146,7 +11148,7 @@
       <c r="B123" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C123" s="36"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="6" t="s">
         <v>279</v>
       </c>
@@ -11165,7 +11167,7 @@
       <c r="B124" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="37"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="6" t="s">
         <v>278</v>
       </c>
@@ -11184,7 +11186,7 @@
       <c r="B125" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -11205,7 +11207,7 @@
       <c r="B126" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>285</v>
       </c>
@@ -11224,7 +11226,7 @@
       <c r="B127" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C127" s="36"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="6" t="s">
         <v>289</v>
       </c>
@@ -11243,7 +11245,7 @@
       <c r="B128" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C128" s="37"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="6" t="s">
         <v>292</v>
       </c>
@@ -11262,7 +11264,7 @@
       <c r="B129" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -11283,7 +11285,7 @@
       <c r="B130" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>59</v>
       </c>
@@ -11302,7 +11304,7 @@
       <c r="B131" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>296</v>
       </c>
@@ -11321,7 +11323,7 @@
       <c r="B132" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C132" s="36"/>
+      <c r="C132" s="41"/>
       <c r="D132" s="6" t="s">
         <v>106</v>
       </c>
@@ -11340,7 +11342,7 @@
       <c r="B133" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="37"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="6" t="s">
         <v>298</v>
       </c>
@@ -11354,13 +11356,13 @@
     </row>
     <row r="134" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="35" t="s">
-        <v>1022</v>
+      <c r="C134" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>33</v>
@@ -11375,14 +11377,14 @@
     </row>
     <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="36"/>
+      <c r="C135" s="41"/>
       <c r="D135" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>72</v>
@@ -11394,12 +11396,12 @@
     </row>
     <row r="136" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="36"/>
+      <c r="C136" s="41"/>
       <c r="D136" s="6" t="s">
         <v>59</v>
       </c>
@@ -11413,17 +11415,17 @@
     </row>
     <row r="137" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C137" s="37"/>
+      <c r="C137" s="42"/>
       <c r="D137" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8"/>
@@ -11432,7 +11434,7 @@
     </row>
     <row r="138" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>312</v>
@@ -11452,17 +11454,17 @@
       <c r="I138" s="17"/>
     </row>
     <row r="139" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="51"/>
-      <c r="I139" s="52"/>
+      <c r="A139" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="50"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -11546,15 +11548,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C81"/>
@@ -11568,24 +11579,15 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C134:C137"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11621,20 +11623,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -11652,10 +11654,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -11810,7 +11812,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8"/>
@@ -11856,17 +11858,17 @@
       <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -11879,10 +11881,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="48"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -11943,7 +11945,7 @@
       <c r="B23" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -11964,7 +11966,7 @@
       <c r="B24" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
@@ -11983,7 +11985,7 @@
       <c r="B25" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
@@ -12002,7 +12004,7 @@
       <c r="B26" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="6" t="s">
         <v>33</v>
       </c>
@@ -12021,7 +12023,7 @@
       <c r="B27" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="6" t="s">
         <v>45</v>
       </c>
@@ -12040,7 +12042,7 @@
       <c r="B28" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
@@ -12080,7 +12082,7 @@
       <c r="B30" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -12101,7 +12103,7 @@
       <c r="B31" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C31" s="37"/>
+      <c r="C31" s="42"/>
       <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
@@ -12141,7 +12143,7 @@
       <c r="B33" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -12162,7 +12164,7 @@
       <c r="B34" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="6" t="s">
         <v>62</v>
       </c>
@@ -12181,7 +12183,7 @@
       <c r="B35" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
@@ -12200,7 +12202,7 @@
       <c r="B36" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="37"/>
+      <c r="C36" s="42"/>
       <c r="D36" s="6" t="s">
         <v>59</v>
       </c>
@@ -12219,7 +12221,7 @@
       <c r="B37" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D37" s="6" t="s">
@@ -12240,7 +12242,7 @@
       <c r="B38" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="6" t="s">
         <v>73</v>
       </c>
@@ -12259,7 +12261,7 @@
       <c r="B39" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="6" t="s">
         <v>74</v>
       </c>
@@ -12278,7 +12280,7 @@
       <c r="B40" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="6" t="s">
         <v>75</v>
       </c>
@@ -12297,7 +12299,7 @@
       <c r="B41" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C41" s="37"/>
+      <c r="C41" s="42"/>
       <c r="D41" s="6" t="s">
         <v>46</v>
       </c>
@@ -12316,7 +12318,7 @@
       <c r="B42" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -12337,7 +12339,7 @@
       <c r="B43" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
@@ -12356,7 +12358,7 @@
       <c r="B44" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C44" s="36"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="6" t="s">
         <v>89</v>
       </c>
@@ -12375,7 +12377,7 @@
       <c r="B45" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C45" s="37"/>
+      <c r="C45" s="42"/>
       <c r="D45" s="6" t="s">
         <v>74</v>
       </c>
@@ -12394,7 +12396,7 @@
       <c r="B46" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -12415,7 +12417,7 @@
       <c r="B47" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C47" s="37"/>
+      <c r="C47" s="42"/>
       <c r="D47" s="6" t="s">
         <v>96</v>
       </c>
@@ -12434,7 +12436,7 @@
       <c r="B48" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D48" s="6" t="s">
@@ -12455,7 +12457,7 @@
       <c r="B49" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="37"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="6" t="s">
         <v>46</v>
       </c>
@@ -12474,7 +12476,7 @@
       <c r="B50" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -12495,7 +12497,7 @@
       <c r="B51" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>108</v>
       </c>
@@ -12514,7 +12516,7 @@
       <c r="B52" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>74</v>
       </c>
@@ -12533,7 +12535,7 @@
       <c r="B53" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="6" t="s">
         <v>106</v>
       </c>
@@ -12552,7 +12554,7 @@
       <c r="B54" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="6" t="s">
         <v>109</v>
       </c>
@@ -12571,7 +12573,7 @@
       <c r="B55" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="6" t="s">
         <v>110</v>
       </c>
@@ -12590,7 +12592,7 @@
       <c r="B56" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C56" s="37"/>
+      <c r="C56" s="42"/>
       <c r="D56" s="6" t="s">
         <v>52</v>
       </c>
@@ -12609,7 +12611,7 @@
       <c r="B57" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D57" s="6" t="s">
@@ -12630,7 +12632,7 @@
       <c r="B58" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="37"/>
+      <c r="C58" s="42"/>
       <c r="D58" s="6" t="s">
         <v>112</v>
       </c>
@@ -12649,7 +12651,7 @@
       <c r="B59" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="6" t="s">
@@ -12670,7 +12672,7 @@
       <c r="B60" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="6" t="s">
         <v>48</v>
       </c>
@@ -12689,7 +12691,7 @@
       <c r="B61" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C61" s="36"/>
+      <c r="C61" s="41"/>
       <c r="D61" s="6" t="s">
         <v>126</v>
       </c>
@@ -12708,7 +12710,7 @@
       <c r="B62" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C62" s="37"/>
+      <c r="C62" s="42"/>
       <c r="D62" s="6" t="s">
         <v>33</v>
       </c>
@@ -12727,7 +12729,7 @@
       <c r="B63" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D63" s="6" t="s">
@@ -12748,7 +12750,7 @@
       <c r="B64" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="6" t="s">
         <v>134</v>
       </c>
@@ -12767,7 +12769,7 @@
       <c r="B65" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D65" s="6" t="s">
@@ -12788,7 +12790,7 @@
       <c r="B66" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C66" s="36"/>
+      <c r="C66" s="41"/>
       <c r="D66" s="6" t="s">
         <v>140</v>
       </c>
@@ -12807,7 +12809,7 @@
       <c r="B67" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C67" s="37"/>
+      <c r="C67" s="42"/>
       <c r="D67" s="6" t="s">
         <v>142</v>
       </c>
@@ -12868,7 +12870,7 @@
       <c r="B70" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -12889,7 +12891,7 @@
       <c r="B71" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="37"/>
+      <c r="C71" s="42"/>
       <c r="D71" s="6" t="s">
         <v>154</v>
       </c>
@@ -12908,7 +12910,7 @@
       <c r="B72" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D72" s="6" t="s">
@@ -12929,7 +12931,7 @@
       <c r="B73" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C73" s="37"/>
+      <c r="C73" s="42"/>
       <c r="D73" s="6" t="s">
         <v>165</v>
       </c>
@@ -12948,7 +12950,7 @@
       <c r="B74" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D74" s="6" t="s">
@@ -12969,7 +12971,7 @@
       <c r="B75" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>167</v>
       </c>
@@ -12988,7 +12990,7 @@
       <c r="B76" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>168</v>
       </c>
@@ -13007,7 +13009,7 @@
       <c r="B77" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>174</v>
       </c>
@@ -13026,7 +13028,7 @@
       <c r="B78" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="6" t="s">
         <v>177</v>
       </c>
@@ -13045,7 +13047,7 @@
       <c r="B79" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="36"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="6" t="s">
         <v>176</v>
       </c>
@@ -13064,7 +13066,7 @@
       <c r="B80" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="36"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="6" t="s">
         <v>179</v>
       </c>
@@ -13083,7 +13085,7 @@
       <c r="B81" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C81" s="37"/>
+      <c r="C81" s="42"/>
       <c r="D81" s="6" t="s">
         <v>181</v>
       </c>
@@ -13102,7 +13104,7 @@
       <c r="B82" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D82" s="6" t="s">
@@ -13123,7 +13125,7 @@
       <c r="B83" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="6" t="s">
         <v>106</v>
       </c>
@@ -13142,7 +13144,7 @@
       <c r="B84" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="6" t="s">
         <v>193</v>
       </c>
@@ -13161,7 +13163,7 @@
       <c r="B85" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="37"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="6" t="s">
         <v>33</v>
       </c>
@@ -13175,19 +13177,19 @@
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>1061</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>1062</v>
-      </c>
       <c r="E86" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -13196,17 +13198,17 @@
     </row>
     <row r="87" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -13215,17 +13217,17 @@
     </row>
     <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="6" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>1084</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>1085</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
@@ -13234,17 +13236,17 @@
     </row>
     <row r="89" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C89" s="37"/>
+      <c r="C89" s="42"/>
       <c r="D89" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E89" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
@@ -13252,17 +13254,17 @@
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="40"/>
-      <c r="C90" s="40"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="41"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -13275,10 +13277,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="38" t="s">
+      <c r="A92" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="38"/>
+      <c r="B92" s="48"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -13339,7 +13341,7 @@
       <c r="B95" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -13360,7 +13362,7 @@
       <c r="B96" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C96" s="43"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="6" t="s">
         <v>202</v>
       </c>
@@ -13379,7 +13381,7 @@
       <c r="B97" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -13400,7 +13402,7 @@
       <c r="B98" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="43"/>
+      <c r="C98" s="52"/>
       <c r="D98" s="6" t="s">
         <v>205</v>
       </c>
@@ -13419,7 +13421,7 @@
       <c r="B99" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -13440,7 +13442,7 @@
       <c r="B100" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="43"/>
+      <c r="C100" s="52"/>
       <c r="D100" s="6" t="s">
         <v>207</v>
       </c>
@@ -13459,7 +13461,7 @@
       <c r="B101" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D101" s="6" t="s">
@@ -13480,7 +13482,7 @@
       <c r="B102" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C102" s="37"/>
+      <c r="C102" s="42"/>
       <c r="D102" s="6" t="s">
         <v>218</v>
       </c>
@@ -13499,7 +13501,7 @@
       <c r="B103" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D103" s="6" t="s">
@@ -13520,7 +13522,7 @@
       <c r="B104" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C104" s="37"/>
+      <c r="C104" s="42"/>
       <c r="D104" s="6" t="s">
         <v>228</v>
       </c>
@@ -13539,7 +13541,7 @@
       <c r="B105" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -13560,7 +13562,7 @@
       <c r="B106" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C106" s="37"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="6" t="s">
         <v>230</v>
       </c>
@@ -13579,7 +13581,7 @@
       <c r="B107" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -13600,7 +13602,7 @@
       <c r="B108" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="37"/>
+      <c r="C108" s="42"/>
       <c r="D108" s="6" t="s">
         <v>240</v>
       </c>
@@ -13619,7 +13621,7 @@
       <c r="B109" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -13640,7 +13642,7 @@
       <c r="B110" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C110" s="37"/>
+      <c r="C110" s="42"/>
       <c r="D110" s="6" t="s">
         <v>245</v>
       </c>
@@ -13659,7 +13661,7 @@
       <c r="B111" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D111" s="6" t="s">
@@ -13680,7 +13682,7 @@
       <c r="B112" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C112" s="37"/>
+      <c r="C112" s="42"/>
       <c r="D112" s="6" t="s">
         <v>247</v>
       </c>
@@ -13699,7 +13701,7 @@
       <c r="B113" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D113" s="6" t="s">
@@ -13720,7 +13722,7 @@
       <c r="B114" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="36"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="6" t="s">
         <v>254</v>
       </c>
@@ -13739,7 +13741,7 @@
       <c r="B115" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="36"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="6" t="s">
         <v>106</v>
       </c>
@@ -13758,7 +13760,7 @@
       <c r="B116" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C116" s="37"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="6" t="s">
         <v>255</v>
       </c>
@@ -13777,7 +13779,7 @@
       <c r="B117" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -13798,7 +13800,7 @@
       <c r="B118" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C118" s="36"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="6" t="s">
         <v>262</v>
       </c>
@@ -13817,7 +13819,7 @@
       <c r="B119" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C119" s="37"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="6" t="s">
         <v>264</v>
       </c>
@@ -13836,7 +13838,7 @@
       <c r="B120" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -13857,7 +13859,7 @@
       <c r="B121" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>275</v>
       </c>
@@ -13876,7 +13878,7 @@
       <c r="B122" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>277</v>
       </c>
@@ -13895,7 +13897,7 @@
       <c r="B123" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C123" s="36"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="6" t="s">
         <v>279</v>
       </c>
@@ -13914,7 +13916,7 @@
       <c r="B124" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C124" s="37"/>
+      <c r="C124" s="42"/>
       <c r="D124" s="6" t="s">
         <v>278</v>
       </c>
@@ -13933,7 +13935,7 @@
       <c r="B125" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -13954,7 +13956,7 @@
       <c r="B126" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>285</v>
       </c>
@@ -13973,7 +13975,7 @@
       <c r="B127" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C127" s="36"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="6" t="s">
         <v>289</v>
       </c>
@@ -13992,7 +13994,7 @@
       <c r="B128" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C128" s="37"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="6" t="s">
         <v>292</v>
       </c>
@@ -14011,7 +14013,7 @@
       <c r="B129" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C129" s="35" t="s">
+      <c r="C129" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -14032,7 +14034,7 @@
       <c r="B130" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>59</v>
       </c>
@@ -14051,7 +14053,7 @@
       <c r="B131" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>296</v>
       </c>
@@ -14070,7 +14072,7 @@
       <c r="B132" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C132" s="36"/>
+      <c r="C132" s="41"/>
       <c r="D132" s="6" t="s">
         <v>106</v>
       </c>
@@ -14089,7 +14091,7 @@
       <c r="B133" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C133" s="37"/>
+      <c r="C133" s="42"/>
       <c r="D133" s="6" t="s">
         <v>298</v>
       </c>
@@ -14103,13 +14105,13 @@
     </row>
     <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="35" t="s">
-        <v>1022</v>
+      <c r="C134" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>33</v>
@@ -14124,14 +14126,14 @@
     </row>
     <row r="135" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="36"/>
+      <c r="C135" s="41"/>
       <c r="D135" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>72</v>
@@ -14143,12 +14145,12 @@
     </row>
     <row r="136" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="36"/>
+      <c r="C136" s="41"/>
       <c r="D136" s="6" t="s">
         <v>59</v>
       </c>
@@ -14162,17 +14164,17 @@
     </row>
     <row r="137" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A137" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C137" s="37"/>
+      <c r="C137" s="42"/>
       <c r="D137" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="8"/>
@@ -14181,7 +14183,7 @@
     </row>
     <row r="138" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B138" s="29" t="s">
         <v>315</v>
@@ -14201,17 +14203,17 @@
       <c r="I138" s="17"/>
     </row>
     <row r="139" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="51"/>
-      <c r="I139" s="52"/>
+      <c r="A139" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
+      <c r="I139" s="50"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -14295,15 +14297,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C81"/>
@@ -14317,24 +14328,15 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C134:C137"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14373,20 +14375,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -14404,10 +14406,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -14543,7 +14545,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -14589,17 +14591,17 @@
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -14612,10 +14614,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -14676,7 +14678,7 @@
       <c r="B22" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -14697,9 +14699,9 @@
       <c r="B23" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>20</v>
@@ -14716,7 +14718,7 @@
       <c r="B24" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>44</v>
       </c>
@@ -14735,9 +14737,9 @@
       <c r="B25" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
@@ -14754,7 +14756,7 @@
       <c r="B26" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
@@ -14773,9 +14775,9 @@
       <c r="B27" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>20</v>
@@ -14799,7 +14801,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -14813,7 +14815,7 @@
       <c r="B29" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -14834,7 +14836,7 @@
       <c r="B30" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="6" t="s">
         <v>48</v>
       </c>
@@ -14860,7 +14862,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
@@ -14874,7 +14876,7 @@
       <c r="B32" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -14895,7 +14897,7 @@
       <c r="B33" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -14914,7 +14916,7 @@
       <c r="B34" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="6" t="s">
         <v>65</v>
       </c>
@@ -14933,7 +14935,7 @@
       <c r="B35" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="6" t="s">
         <v>59</v>
       </c>
@@ -14952,7 +14954,7 @@
       <c r="B36" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -14973,7 +14975,7 @@
       <c r="B37" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6" t="s">
         <v>73</v>
       </c>
@@ -14992,7 +14994,7 @@
       <c r="B38" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
@@ -15011,12 +15013,12 @@
       <c r="B39" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
@@ -15030,7 +15032,7 @@
       <c r="B40" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="6" t="s">
         <v>46</v>
       </c>
@@ -15049,7 +15051,7 @@
       <c r="B41" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -15070,7 +15072,7 @@
       <c r="B42" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -15089,7 +15091,7 @@
       <c r="B43" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="6" t="s">
         <v>89</v>
       </c>
@@ -15108,7 +15110,7 @@
       <c r="B44" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
@@ -15127,7 +15129,7 @@
       <c r="B45" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -15148,7 +15150,7 @@
       <c r="B46" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="6" t="s">
         <v>96</v>
       </c>
@@ -15167,7 +15169,7 @@
       <c r="B47" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -15188,7 +15190,7 @@
       <c r="B48" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="6" t="s">
         <v>46</v>
       </c>
@@ -15207,7 +15209,7 @@
       <c r="B49" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -15228,7 +15230,7 @@
       <c r="B50" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="6" t="s">
         <v>108</v>
       </c>
@@ -15247,7 +15249,7 @@
       <c r="B51" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>74</v>
       </c>
@@ -15266,7 +15268,7 @@
       <c r="B52" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>106</v>
       </c>
@@ -15285,7 +15287,7 @@
       <c r="B53" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="6" t="s">
         <v>109</v>
       </c>
@@ -15304,7 +15306,7 @@
       <c r="B54" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="6" t="s">
         <v>110</v>
       </c>
@@ -15323,12 +15325,12 @@
       <c r="B55" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
@@ -15342,11 +15344,11 @@
       <c r="B56" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>20</v>
@@ -15363,7 +15365,7 @@
       <c r="B57" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C57" s="37"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="6" t="s">
         <v>112</v>
       </c>
@@ -15382,11 +15384,11 @@
       <c r="B58" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>20</v>
@@ -15403,7 +15405,7 @@
       <c r="B59" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="6" t="s">
         <v>48</v>
       </c>
@@ -15422,7 +15424,7 @@
       <c r="B60" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="6" t="s">
         <v>126</v>
       </c>
@@ -15441,9 +15443,9 @@
       <c r="B61" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>20</v>
@@ -15460,7 +15462,7 @@
       <c r="B62" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -15481,7 +15483,7 @@
       <c r="B63" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="6" t="s">
         <v>134</v>
       </c>
@@ -15500,7 +15502,7 @@
       <c r="B64" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -15521,7 +15523,7 @@
       <c r="B65" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C65" s="36"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="6" t="s">
         <v>140</v>
       </c>
@@ -15540,7 +15542,7 @@
       <c r="B66" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C66" s="37"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="6" t="s">
         <v>142</v>
       </c>
@@ -15601,7 +15603,7 @@
       <c r="B69" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -15622,7 +15624,7 @@
       <c r="B70" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C70" s="37"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="6" t="s">
         <v>154</v>
       </c>
@@ -15641,7 +15643,7 @@
       <c r="B71" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -15662,7 +15664,7 @@
       <c r="B72" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C72" s="37"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="6" t="s">
         <v>165</v>
       </c>
@@ -15681,11 +15683,11 @@
       <c r="B73" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>20</v>
@@ -15702,7 +15704,7 @@
       <c r="B74" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="6" t="s">
         <v>167</v>
       </c>
@@ -15721,7 +15723,7 @@
       <c r="B75" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>168</v>
       </c>
@@ -15740,7 +15742,7 @@
       <c r="B76" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>174</v>
       </c>
@@ -15759,7 +15761,7 @@
       <c r="B77" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>177</v>
       </c>
@@ -15778,7 +15780,7 @@
       <c r="B78" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="6" t="s">
         <v>176</v>
       </c>
@@ -15797,7 +15799,7 @@
       <c r="B79" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C79" s="36"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="6" t="s">
         <v>179</v>
       </c>
@@ -15816,7 +15818,7 @@
       <c r="B80" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="37"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="6" t="s">
         <v>181</v>
       </c>
@@ -15835,7 +15837,7 @@
       <c r="B81" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -15856,7 +15858,7 @@
       <c r="B82" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="6" t="s">
         <v>106</v>
       </c>
@@ -15875,7 +15877,7 @@
       <c r="B83" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="6" t="s">
         <v>193</v>
       </c>
@@ -15894,9 +15896,9 @@
       <c r="B84" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="37"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E84" s="20" t="s">
         <v>20</v>
@@ -15908,19 +15910,19 @@
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>1061</v>
+      <c r="C85" s="40" t="s">
+        <v>1060</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
@@ -15929,14 +15931,14 @@
     </row>
     <row r="86" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>20</v>
@@ -15948,17 +15950,17 @@
     </row>
     <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -15967,17 +15969,17 @@
     </row>
     <row r="88" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C88" s="37"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
@@ -15985,17 +15987,17 @@
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="41"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -16008,10 +16010,10 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="48"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
@@ -16072,11 +16074,11 @@
       <c r="B94" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>20</v>
@@ -16093,7 +16095,7 @@
       <c r="B95" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="6" t="s">
         <v>202</v>
       </c>
@@ -16112,7 +16114,7 @@
       <c r="B96" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -16133,7 +16135,7 @@
       <c r="B97" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C97" s="43"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="6" t="s">
         <v>205</v>
       </c>
@@ -16152,7 +16154,7 @@
       <c r="B98" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -16173,7 +16175,7 @@
       <c r="B99" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="43"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6" t="s">
         <v>207</v>
       </c>
@@ -16192,7 +16194,7 @@
       <c r="B100" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -16213,7 +16215,7 @@
       <c r="B101" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C101" s="37"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="6" t="s">
         <v>218</v>
       </c>
@@ -16232,11 +16234,11 @@
       <c r="B102" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>20</v>
@@ -16253,7 +16255,7 @@
       <c r="B103" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="6" t="s">
         <v>228</v>
       </c>
@@ -16272,11 +16274,11 @@
       <c r="B104" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>20</v>
@@ -16293,7 +16295,7 @@
       <c r="B105" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C105" s="37"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="6" t="s">
         <v>230</v>
       </c>
@@ -16312,7 +16314,7 @@
       <c r="B106" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -16333,7 +16335,7 @@
       <c r="B107" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C107" s="37"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="6" t="s">
         <v>240</v>
       </c>
@@ -16352,7 +16354,7 @@
       <c r="B108" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -16373,7 +16375,7 @@
       <c r="B109" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="6" t="s">
         <v>245</v>
       </c>
@@ -16392,7 +16394,7 @@
       <c r="B110" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -16413,7 +16415,7 @@
       <c r="B111" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C111" s="37"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="6" t="s">
         <v>247</v>
       </c>
@@ -16432,7 +16434,7 @@
       <c r="B112" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -16453,7 +16455,7 @@
       <c r="B113" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C113" s="36"/>
+      <c r="C113" s="41"/>
       <c r="D113" s="6" t="s">
         <v>254</v>
       </c>
@@ -16472,7 +16474,7 @@
       <c r="B114" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C114" s="36"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="6" t="s">
         <v>106</v>
       </c>
@@ -16491,7 +16493,7 @@
       <c r="B115" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C115" s="37"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="6" t="s">
         <v>255</v>
       </c>
@@ -16510,7 +16512,7 @@
       <c r="B116" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -16531,7 +16533,7 @@
       <c r="B117" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C117" s="36"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="6" t="s">
         <v>325</v>
       </c>
@@ -16550,9 +16552,9 @@
       <c r="B118" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C118" s="37"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>1015</v>
@@ -16569,7 +16571,7 @@
       <c r="B119" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -16590,7 +16592,7 @@
       <c r="B120" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C120" s="36"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="6" t="s">
         <v>275</v>
       </c>
@@ -16609,7 +16611,7 @@
       <c r="B121" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>277</v>
       </c>
@@ -16628,7 +16630,7 @@
       <c r="B122" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>279</v>
       </c>
@@ -16647,7 +16649,7 @@
       <c r="B123" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C123" s="37"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="6" t="s">
         <v>278</v>
       </c>
@@ -16666,7 +16668,7 @@
       <c r="B124" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -16687,7 +16689,7 @@
       <c r="B125" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="6" t="s">
         <v>285</v>
       </c>
@@ -16706,7 +16708,7 @@
       <c r="B126" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>289</v>
       </c>
@@ -16725,7 +16727,7 @@
       <c r="B127" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C127" s="37"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="6" t="s">
         <v>292</v>
       </c>
@@ -16744,7 +16746,7 @@
       <c r="B128" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -16765,7 +16767,7 @@
       <c r="B129" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C129" s="36"/>
+      <c r="C129" s="41"/>
       <c r="D129" s="6" t="s">
         <v>59</v>
       </c>
@@ -16784,7 +16786,7 @@
       <c r="B130" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>296</v>
       </c>
@@ -16803,7 +16805,7 @@
       <c r="B131" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>106</v>
       </c>
@@ -16822,7 +16824,7 @@
       <c r="B132" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="6" t="s">
         <v>298</v>
       </c>
@@ -16836,16 +16838,16 @@
     </row>
     <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C133" s="35" t="s">
-        <v>1022</v>
+      <c r="C133" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>20</v>
@@ -16857,14 +16859,14 @@
     </row>
     <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="36"/>
+      <c r="C134" s="41"/>
       <c r="D134" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>72</v>
@@ -16876,12 +16878,12 @@
     </row>
     <row r="135" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="36"/>
+      <c r="C135" s="41"/>
       <c r="D135" s="6" t="s">
         <v>59</v>
       </c>
@@ -16895,17 +16897,17 @@
     </row>
     <row r="136" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="37"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="8"/>
@@ -16914,7 +16916,7 @@
     </row>
     <row r="137" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>316</v>
@@ -16923,7 +16925,7 @@
         <v>305</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>20</v>
@@ -16934,17 +16936,17 @@
       <c r="I137" s="17"/>
     </row>
     <row r="138" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="52"/>
+      <c r="A138" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -17028,15 +17030,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C66"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C80"/>
@@ -17050,24 +17061,15 @@
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17109,20 +17111,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -17140,10 +17142,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -17241,7 +17243,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
@@ -17287,17 +17289,17 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -17310,10 +17312,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="48"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -17374,7 +17376,7 @@
       <c r="B20" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -17395,9 +17397,9 @@
       <c r="B21" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>20</v>
@@ -17414,7 +17416,7 @@
       <c r="B22" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
@@ -17433,9 +17435,9 @@
       <c r="B23" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>20</v>
@@ -17452,7 +17454,7 @@
       <c r="B24" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
@@ -17471,9 +17473,9 @@
       <c r="B25" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>20</v>
@@ -17497,7 +17499,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
@@ -17511,7 +17513,7 @@
       <c r="B27" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -17532,7 +17534,7 @@
       <c r="B28" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
@@ -17558,7 +17560,7 @@
         <v>52</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -17572,7 +17574,7 @@
       <c r="B30" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -17593,7 +17595,7 @@
       <c r="B31" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
@@ -17612,7 +17614,7 @@
       <c r="B32" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="6" t="s">
         <v>65</v>
       </c>
@@ -17631,7 +17633,7 @@
       <c r="B33" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="6" t="s">
         <v>59</v>
       </c>
@@ -17650,7 +17652,7 @@
       <c r="B34" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -17671,7 +17673,7 @@
       <c r="B35" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="6" t="s">
         <v>73</v>
       </c>
@@ -17690,7 +17692,7 @@
       <c r="B36" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6" t="s">
         <v>74</v>
       </c>
@@ -17709,12 +17711,12 @@
       <c r="B37" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
@@ -17728,7 +17730,7 @@
       <c r="B38" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="6" t="s">
         <v>46</v>
       </c>
@@ -17747,7 +17749,7 @@
       <c r="B39" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -17768,7 +17770,7 @@
       <c r="B40" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="6" t="s">
         <v>74</v>
       </c>
@@ -17787,7 +17789,7 @@
       <c r="B41" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="6" t="s">
         <v>89</v>
       </c>
@@ -17806,7 +17808,7 @@
       <c r="B42" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -17825,7 +17827,7 @@
       <c r="B43" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -17846,7 +17848,7 @@
       <c r="B44" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="6" t="s">
         <v>96</v>
       </c>
@@ -17865,7 +17867,7 @@
       <c r="B45" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -17886,7 +17888,7 @@
       <c r="B46" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="6" t="s">
         <v>46</v>
       </c>
@@ -17905,7 +17907,7 @@
       <c r="B47" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -17926,7 +17928,7 @@
       <c r="B48" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="6" t="s">
         <v>108</v>
       </c>
@@ -17945,7 +17947,7 @@
       <c r="B49" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="6" t="s">
         <v>74</v>
       </c>
@@ -17964,7 +17966,7 @@
       <c r="B50" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="6" t="s">
         <v>106</v>
       </c>
@@ -17983,7 +17985,7 @@
       <c r="B51" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>109</v>
       </c>
@@ -18002,7 +18004,7 @@
       <c r="B52" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>110</v>
       </c>
@@ -18021,12 +18023,12 @@
       <c r="B53" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
@@ -18040,11 +18042,11 @@
       <c r="B54" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>20</v>
@@ -18061,7 +18063,7 @@
       <c r="B55" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="6" t="s">
         <v>112</v>
       </c>
@@ -18080,11 +18082,11 @@
       <c r="B56" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>20</v>
@@ -18101,7 +18103,7 @@
       <c r="B57" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="6" t="s">
         <v>48</v>
       </c>
@@ -18120,7 +18122,7 @@
       <c r="B58" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="6" t="s">
         <v>126</v>
       </c>
@@ -18139,9 +18141,9 @@
       <c r="B59" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>20</v>
@@ -18158,7 +18160,7 @@
       <c r="B60" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -18179,7 +18181,7 @@
       <c r="B61" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="6" t="s">
         <v>134</v>
       </c>
@@ -18198,7 +18200,7 @@
       <c r="B62" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -18219,7 +18221,7 @@
       <c r="B63" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="6" t="s">
         <v>140</v>
       </c>
@@ -18238,7 +18240,7 @@
       <c r="B64" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="6" t="s">
         <v>142</v>
       </c>
@@ -18299,7 +18301,7 @@
       <c r="B67" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -18320,7 +18322,7 @@
       <c r="B68" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C68" s="37"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="6" t="s">
         <v>154</v>
       </c>
@@ -18339,7 +18341,7 @@
       <c r="B69" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -18360,7 +18362,7 @@
       <c r="B70" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C70" s="37"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="6" t="s">
         <v>165</v>
       </c>
@@ -18379,11 +18381,11 @@
       <c r="B71" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>20</v>
@@ -18400,7 +18402,7 @@
       <c r="B72" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C72" s="36"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="6" t="s">
         <v>167</v>
       </c>
@@ -18419,7 +18421,7 @@
       <c r="B73" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C73" s="36"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="6" t="s">
         <v>168</v>
       </c>
@@ -18438,7 +18440,7 @@
       <c r="B74" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="6" t="s">
         <v>174</v>
       </c>
@@ -18457,7 +18459,7 @@
       <c r="B75" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>177</v>
       </c>
@@ -18476,7 +18478,7 @@
       <c r="B76" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>176</v>
       </c>
@@ -18495,7 +18497,7 @@
       <c r="B77" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>179</v>
       </c>
@@ -18514,7 +18516,7 @@
       <c r="B78" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="6" t="s">
         <v>181</v>
       </c>
@@ -18533,7 +18535,7 @@
       <c r="B79" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -18554,7 +18556,7 @@
       <c r="B80" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C80" s="36"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="6" t="s">
         <v>106</v>
       </c>
@@ -18573,7 +18575,7 @@
       <c r="B81" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="36"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="6" t="s">
         <v>193</v>
       </c>
@@ -18592,9 +18594,9 @@
       <c r="B82" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C82" s="37"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>20</v>
@@ -18606,19 +18608,19 @@
     </row>
     <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>1061</v>
+      <c r="C83" s="40" t="s">
+        <v>1060</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
@@ -18627,14 +18629,14 @@
     </row>
     <row r="84" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>20</v>
@@ -18646,17 +18648,17 @@
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="41"/>
       <c r="D85" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
@@ -18665,17 +18667,17 @@
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="37"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -18684,19 +18686,19 @@
     </row>
     <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="35" t="s">
-        <v>1061</v>
+      <c r="C87" s="40" t="s">
+        <v>1060</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -18705,14 +18707,14 @@
     </row>
     <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C88" s="36"/>
+      <c r="C88" s="41"/>
       <c r="D88" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>20</v>
@@ -18724,17 +18726,17 @@
     </row>
     <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="28" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B89" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C89" s="36"/>
+      <c r="C89" s="41"/>
       <c r="D89" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="8"/>
@@ -18743,17 +18745,17 @@
     </row>
     <row r="90" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B90" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C90" s="37"/>
+      <c r="C90" s="42"/>
       <c r="D90" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E90" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F90" s="7"/>
       <c r="G90" s="8"/>
@@ -18761,17 +18763,17 @@
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="40"/>
-      <c r="H91" s="40"/>
-      <c r="I91" s="41"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="46"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -18784,10 +18786,10 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B93" s="38"/>
+      <c r="B93" s="48"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
@@ -18848,11 +18850,11 @@
       <c r="B96" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>20</v>
@@ -18869,7 +18871,7 @@
       <c r="B97" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="43"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="6" t="s">
         <v>202</v>
       </c>
@@ -18888,7 +18890,7 @@
       <c r="B98" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -18909,7 +18911,7 @@
       <c r="B99" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C99" s="43"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6" t="s">
         <v>205</v>
       </c>
@@ -18928,7 +18930,7 @@
       <c r="B100" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -18949,7 +18951,7 @@
       <c r="B101" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C101" s="43"/>
+      <c r="C101" s="52"/>
       <c r="D101" s="6" t="s">
         <v>207</v>
       </c>
@@ -18968,7 +18970,7 @@
       <c r="B102" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D102" s="6" t="s">
@@ -18989,7 +18991,7 @@
       <c r="B103" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="6" t="s">
         <v>218</v>
       </c>
@@ -19008,11 +19010,11 @@
       <c r="B104" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>20</v>
@@ -19029,7 +19031,7 @@
       <c r="B105" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C105" s="37"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="6" t="s">
         <v>228</v>
       </c>
@@ -19048,11 +19050,11 @@
       <c r="B106" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>20</v>
@@ -19069,7 +19071,7 @@
       <c r="B107" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C107" s="37"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="6" t="s">
         <v>230</v>
       </c>
@@ -19088,7 +19090,7 @@
       <c r="B108" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -19109,7 +19111,7 @@
       <c r="B109" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="6" t="s">
         <v>240</v>
       </c>
@@ -19128,7 +19130,7 @@
       <c r="B110" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -19149,7 +19151,7 @@
       <c r="B111" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C111" s="37"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="6" t="s">
         <v>245</v>
       </c>
@@ -19168,7 +19170,7 @@
       <c r="B112" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -19189,7 +19191,7 @@
       <c r="B113" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C113" s="37"/>
+      <c r="C113" s="42"/>
       <c r="D113" s="6" t="s">
         <v>247</v>
       </c>
@@ -19208,7 +19210,7 @@
       <c r="B114" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -19229,7 +19231,7 @@
       <c r="B115" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C115" s="36"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="6" t="s">
         <v>254</v>
       </c>
@@ -19248,7 +19250,7 @@
       <c r="B116" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C116" s="36"/>
+      <c r="C116" s="41"/>
       <c r="D116" s="6" t="s">
         <v>106</v>
       </c>
@@ -19267,7 +19269,7 @@
       <c r="B117" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C117" s="37"/>
+      <c r="C117" s="42"/>
       <c r="D117" s="6" t="s">
         <v>255</v>
       </c>
@@ -19286,7 +19288,7 @@
       <c r="B118" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="35" t="s">
+      <c r="C118" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D118" s="6" t="s">
@@ -19307,7 +19309,7 @@
       <c r="B119" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C119" s="36"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="6" t="s">
         <v>325</v>
       </c>
@@ -19326,12 +19328,12 @@
       <c r="B120" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C120" s="37"/>
+      <c r="C120" s="42"/>
       <c r="D120" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="8"/>
@@ -19345,7 +19347,7 @@
       <c r="B121" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C121" s="35" t="s">
+      <c r="C121" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -19366,12 +19368,12 @@
       <c r="B122" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>275</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="8"/>
@@ -19385,12 +19387,12 @@
       <c r="B123" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C123" s="36"/>
+      <c r="C123" s="41"/>
       <c r="D123" s="6" t="s">
         <v>277</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F123" s="7"/>
       <c r="G123" s="8"/>
@@ -19404,7 +19406,7 @@
       <c r="B124" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -19425,7 +19427,7 @@
       <c r="B125" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="6" t="s">
         <v>285</v>
       </c>
@@ -19444,7 +19446,7 @@
       <c r="B126" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>289</v>
       </c>
@@ -19463,7 +19465,7 @@
       <c r="B127" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C127" s="37"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="6" t="s">
         <v>292</v>
       </c>
@@ -19482,7 +19484,7 @@
       <c r="B128" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -19503,7 +19505,7 @@
       <c r="B129" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C129" s="36"/>
+      <c r="C129" s="41"/>
       <c r="D129" s="6" t="s">
         <v>59</v>
       </c>
@@ -19522,7 +19524,7 @@
       <c r="B130" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>296</v>
       </c>
@@ -19541,7 +19543,7 @@
       <c r="B131" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>106</v>
       </c>
@@ -19560,7 +19562,7 @@
       <c r="B132" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="6" t="s">
         <v>298</v>
       </c>
@@ -19574,16 +19576,16 @@
     </row>
     <row r="133" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C133" s="35" t="s">
-        <v>1022</v>
+      <c r="C133" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>20</v>
@@ -19595,14 +19597,14 @@
     </row>
     <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="36"/>
+      <c r="C134" s="41"/>
       <c r="D134" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>72</v>
@@ -19614,12 +19616,12 @@
     </row>
     <row r="135" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="36"/>
+      <c r="C135" s="41"/>
       <c r="D135" s="6" t="s">
         <v>59</v>
       </c>
@@ -19633,17 +19635,17 @@
     </row>
     <row r="136" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="37"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="8"/>
@@ -19652,7 +19654,7 @@
     </row>
     <row r="137" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>328</v>
@@ -19661,7 +19663,7 @@
         <v>305</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>20</v>
@@ -19672,17 +19674,17 @@
       <c r="I137" s="17"/>
     </row>
     <row r="138" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
+      <c r="A138" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="53"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="52"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -19766,15 +19768,24 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C78"/>
@@ -19789,24 +19800,15 @@
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C83:C86"/>
     <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19849,20 +19851,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -19880,10 +19882,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -20019,7 +20021,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8"/>
@@ -20065,17 +20067,17 @@
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -20088,10 +20090,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="48"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -20152,7 +20154,7 @@
       <c r="B22" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -20173,9 +20175,9 @@
       <c r="B23" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>326</v>
@@ -20192,7 +20194,7 @@
       <c r="B24" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>44</v>
       </c>
@@ -20211,9 +20213,9 @@
       <c r="B25" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C25" s="36"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>326</v>
@@ -20230,7 +20232,7 @@
       <c r="B26" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C26" s="36"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
@@ -20249,9 +20251,9 @@
       <c r="B27" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="37"/>
+      <c r="C27" s="42"/>
       <c r="D27" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>326</v>
@@ -20275,7 +20277,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8"/>
@@ -20289,7 +20291,7 @@
       <c r="B29" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -20310,7 +20312,7 @@
       <c r="B30" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="37"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="6" t="s">
         <v>48</v>
       </c>
@@ -20336,7 +20338,7 @@
         <v>52</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="8"/>
@@ -20350,7 +20352,7 @@
       <c r="B32" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -20371,7 +20373,7 @@
       <c r="B33" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="6" t="s">
         <v>62</v>
       </c>
@@ -20390,7 +20392,7 @@
       <c r="B34" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="6" t="s">
         <v>65</v>
       </c>
@@ -20409,7 +20411,7 @@
       <c r="B35" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="6" t="s">
         <v>59</v>
       </c>
@@ -20428,7 +20430,7 @@
       <c r="B36" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="6" t="s">
@@ -20449,7 +20451,7 @@
       <c r="B37" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6" t="s">
         <v>73</v>
       </c>
@@ -20468,7 +20470,7 @@
       <c r="B38" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C38" s="36"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="6" t="s">
         <v>74</v>
       </c>
@@ -20487,12 +20489,12 @@
       <c r="B39" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="8"/>
@@ -20506,7 +20508,7 @@
       <c r="B40" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="37"/>
+      <c r="C40" s="42"/>
       <c r="D40" s="6" t="s">
         <v>46</v>
       </c>
@@ -20525,7 +20527,7 @@
       <c r="B41" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="6" t="s">
@@ -20546,7 +20548,7 @@
       <c r="B42" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -20565,7 +20567,7 @@
       <c r="B43" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="6" t="s">
         <v>89</v>
       </c>
@@ -20584,7 +20586,7 @@
       <c r="B44" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="6" t="s">
         <v>74</v>
       </c>
@@ -20603,7 +20605,7 @@
       <c r="B45" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -20624,7 +20626,7 @@
       <c r="B46" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="6" t="s">
         <v>96</v>
       </c>
@@ -20643,7 +20645,7 @@
       <c r="B47" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -20664,7 +20666,7 @@
       <c r="B48" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C48" s="37"/>
+      <c r="C48" s="42"/>
       <c r="D48" s="6" t="s">
         <v>46</v>
       </c>
@@ -20683,7 +20685,7 @@
       <c r="B49" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -20704,7 +20706,7 @@
       <c r="B50" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="6" t="s">
         <v>108</v>
       </c>
@@ -20723,7 +20725,7 @@
       <c r="B51" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>74</v>
       </c>
@@ -20742,7 +20744,7 @@
       <c r="B52" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>106</v>
       </c>
@@ -20761,7 +20763,7 @@
       <c r="B53" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C53" s="36"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="6" t="s">
         <v>109</v>
       </c>
@@ -20780,7 +20782,7 @@
       <c r="B54" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="6" t="s">
         <v>110</v>
       </c>
@@ -20799,12 +20801,12 @@
       <c r="B55" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
@@ -20818,11 +20820,11 @@
       <c r="B56" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>326</v>
@@ -20839,7 +20841,7 @@
       <c r="B57" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C57" s="37"/>
+      <c r="C57" s="42"/>
       <c r="D57" s="6" t="s">
         <v>112</v>
       </c>
@@ -20858,11 +20860,11 @@
       <c r="B58" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>326</v>
@@ -20879,7 +20881,7 @@
       <c r="B59" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="41"/>
       <c r="D59" s="6" t="s">
         <v>48</v>
       </c>
@@ -20898,7 +20900,7 @@
       <c r="B60" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C60" s="36"/>
+      <c r="C60" s="41"/>
       <c r="D60" s="6" t="s">
         <v>126</v>
       </c>
@@ -20917,9 +20919,9 @@
       <c r="B61" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>326</v>
@@ -20936,7 +20938,7 @@
       <c r="B62" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -20957,7 +20959,7 @@
       <c r="B63" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C63" s="37"/>
+      <c r="C63" s="42"/>
       <c r="D63" s="6" t="s">
         <v>134</v>
       </c>
@@ -20976,7 +20978,7 @@
       <c r="B64" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D64" s="6" t="s">
@@ -20997,7 +20999,7 @@
       <c r="B65" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="36"/>
+      <c r="C65" s="41"/>
       <c r="D65" s="6" t="s">
         <v>140</v>
       </c>
@@ -21016,7 +21018,7 @@
       <c r="B66" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C66" s="37"/>
+      <c r="C66" s="42"/>
       <c r="D66" s="6" t="s">
         <v>142</v>
       </c>
@@ -21077,7 +21079,7 @@
       <c r="B69" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -21098,7 +21100,7 @@
       <c r="B70" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C70" s="37"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="6" t="s">
         <v>154</v>
       </c>
@@ -21117,7 +21119,7 @@
       <c r="B71" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D71" s="6" t="s">
@@ -21138,7 +21140,7 @@
       <c r="B72" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C72" s="37"/>
+      <c r="C72" s="42"/>
       <c r="D72" s="6" t="s">
         <v>165</v>
       </c>
@@ -21157,11 +21159,11 @@
       <c r="B73" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>326</v>
@@ -21178,7 +21180,7 @@
       <c r="B74" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="6" t="s">
         <v>167</v>
       </c>
@@ -21197,7 +21199,7 @@
       <c r="B75" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>168</v>
       </c>
@@ -21216,7 +21218,7 @@
       <c r="B76" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>174</v>
       </c>
@@ -21235,7 +21237,7 @@
       <c r="B77" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>177</v>
       </c>
@@ -21254,7 +21256,7 @@
       <c r="B78" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C78" s="36"/>
+      <c r="C78" s="41"/>
       <c r="D78" s="6" t="s">
         <v>176</v>
       </c>
@@ -21273,7 +21275,7 @@
       <c r="B79" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C79" s="36"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="6" t="s">
         <v>179</v>
       </c>
@@ -21292,7 +21294,7 @@
       <c r="B80" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C80" s="37"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="6" t="s">
         <v>181</v>
       </c>
@@ -21311,7 +21313,7 @@
       <c r="B81" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -21332,7 +21334,7 @@
       <c r="B82" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C82" s="36"/>
+      <c r="C82" s="41"/>
       <c r="D82" s="6" t="s">
         <v>106</v>
       </c>
@@ -21351,7 +21353,7 @@
       <c r="B83" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C83" s="36"/>
+      <c r="C83" s="41"/>
       <c r="D83" s="6" t="s">
         <v>193</v>
       </c>
@@ -21370,9 +21372,9 @@
       <c r="B84" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C84" s="37"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>326</v>
@@ -21384,19 +21386,19 @@
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C85" s="35" t="s">
-        <v>1061</v>
+      <c r="C85" s="40" t="s">
+        <v>1060</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
@@ -21405,17 +21407,17 @@
     </row>
     <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="28" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="41"/>
       <c r="D86" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -21424,17 +21426,17 @@
     </row>
     <row r="87" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="28" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B87" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="36"/>
+      <c r="C87" s="41"/>
       <c r="D87" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="8"/>
@@ -21443,17 +21445,17 @@
     </row>
     <row r="88" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C88" s="37"/>
+      <c r="C88" s="42"/>
       <c r="D88" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="8"/>
@@ -21461,17 +21463,17 @@
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="40"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="40"/>
-      <c r="I89" s="41"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -21484,10 +21486,10 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="38" t="s">
+      <c r="A91" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="48"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
@@ -21548,11 +21550,11 @@
       <c r="B94" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>326</v>
@@ -21569,7 +21571,7 @@
       <c r="B95" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="6" t="s">
         <v>202</v>
       </c>
@@ -21588,7 +21590,7 @@
       <c r="B96" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -21609,7 +21611,7 @@
       <c r="B97" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="43"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="6" t="s">
         <v>205</v>
       </c>
@@ -21628,7 +21630,7 @@
       <c r="B98" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -21649,7 +21651,7 @@
       <c r="B99" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C99" s="43"/>
+      <c r="C99" s="52"/>
       <c r="D99" s="6" t="s">
         <v>207</v>
       </c>
@@ -21668,7 +21670,7 @@
       <c r="B100" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -21689,7 +21691,7 @@
       <c r="B101" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C101" s="37"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="6" t="s">
         <v>218</v>
       </c>
@@ -21708,11 +21710,11 @@
       <c r="B102" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>326</v>
@@ -21729,7 +21731,7 @@
       <c r="B103" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="6" t="s">
         <v>228</v>
       </c>
@@ -21748,11 +21750,11 @@
       <c r="B104" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>326</v>
@@ -21769,7 +21771,7 @@
       <c r="B105" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="37"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="6" t="s">
         <v>230</v>
       </c>
@@ -21788,7 +21790,7 @@
       <c r="B106" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -21809,7 +21811,7 @@
       <c r="B107" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C107" s="37"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="6" t="s">
         <v>240</v>
       </c>
@@ -21828,7 +21830,7 @@
       <c r="B108" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -21849,7 +21851,7 @@
       <c r="B109" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="6" t="s">
         <v>245</v>
       </c>
@@ -21868,7 +21870,7 @@
       <c r="B110" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -21889,7 +21891,7 @@
       <c r="B111" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C111" s="37"/>
+      <c r="C111" s="42"/>
       <c r="D111" s="6" t="s">
         <v>247</v>
       </c>
@@ -21908,7 +21910,7 @@
       <c r="B112" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D112" s="6" t="s">
@@ -21929,7 +21931,7 @@
       <c r="B113" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C113" s="36"/>
+      <c r="C113" s="41"/>
       <c r="D113" s="6" t="s">
         <v>254</v>
       </c>
@@ -21948,7 +21950,7 @@
       <c r="B114" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C114" s="36"/>
+      <c r="C114" s="41"/>
       <c r="D114" s="6" t="s">
         <v>106</v>
       </c>
@@ -21967,7 +21969,7 @@
       <c r="B115" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C115" s="37"/>
+      <c r="C115" s="42"/>
       <c r="D115" s="6" t="s">
         <v>255</v>
       </c>
@@ -21986,7 +21988,7 @@
       <c r="B116" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D116" s="6" t="s">
@@ -22007,7 +22009,7 @@
       <c r="B117" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C117" s="36"/>
+      <c r="C117" s="41"/>
       <c r="D117" s="6" t="s">
         <v>325</v>
       </c>
@@ -22026,9 +22028,9 @@
       <c r="B118" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C118" s="37"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>1015</v>
@@ -22045,7 +22047,7 @@
       <c r="B119" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -22066,7 +22068,7 @@
       <c r="B120" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C120" s="36"/>
+      <c r="C120" s="41"/>
       <c r="D120" s="6" t="s">
         <v>275</v>
       </c>
@@ -22085,7 +22087,7 @@
       <c r="B121" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>277</v>
       </c>
@@ -22104,7 +22106,7 @@
       <c r="B122" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>279</v>
       </c>
@@ -22123,7 +22125,7 @@
       <c r="B123" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C123" s="37"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="6" t="s">
         <v>278</v>
       </c>
@@ -22142,7 +22144,7 @@
       <c r="B124" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -22163,7 +22165,7 @@
       <c r="B125" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="6" t="s">
         <v>285</v>
       </c>
@@ -22182,7 +22184,7 @@
       <c r="B126" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>289</v>
       </c>
@@ -22201,7 +22203,7 @@
       <c r="B127" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C127" s="37"/>
+      <c r="C127" s="42"/>
       <c r="D127" s="6" t="s">
         <v>292</v>
       </c>
@@ -22220,7 +22222,7 @@
       <c r="B128" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C128" s="35" t="s">
+      <c r="C128" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -22241,7 +22243,7 @@
       <c r="B129" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C129" s="36"/>
+      <c r="C129" s="41"/>
       <c r="D129" s="6" t="s">
         <v>59</v>
       </c>
@@ -22260,7 +22262,7 @@
       <c r="B130" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
         <v>296</v>
       </c>
@@ -22279,7 +22281,7 @@
       <c r="B131" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>106</v>
       </c>
@@ -22298,7 +22300,7 @@
       <c r="B132" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="6" t="s">
         <v>298</v>
       </c>
@@ -22312,16 +22314,16 @@
     </row>
     <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B133" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C133" s="35" t="s">
-        <v>1022</v>
+      <c r="C133" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>326</v>
@@ -22333,14 +22335,14 @@
     </row>
     <row r="134" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B134" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C134" s="36"/>
+      <c r="C134" s="41"/>
       <c r="D134" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>72</v>
@@ -22352,12 +22354,12 @@
     </row>
     <row r="135" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B135" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C135" s="36"/>
+      <c r="C135" s="41"/>
       <c r="D135" s="6" t="s">
         <v>59</v>
       </c>
@@ -22371,17 +22373,17 @@
     </row>
     <row r="136" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A136" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B136" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C136" s="37"/>
+      <c r="C136" s="42"/>
       <c r="D136" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="8"/>
@@ -22390,7 +22392,7 @@
     </row>
     <row r="137" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B137" s="29" t="s">
         <v>332</v>
@@ -22399,7 +22401,7 @@
         <v>305</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E137" s="6" t="s">
         <v>326</v>
@@ -22410,17 +22412,17 @@
       <c r="I137" s="17"/>
     </row>
     <row r="138" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
+      <c r="A138" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
       <c r="E138" s="53"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
-      <c r="I138" s="52"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
+      <c r="I138" s="50"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -22504,15 +22506,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C66"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C80"/>
@@ -22526,24 +22537,15 @@
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22586,20 +22588,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -22617,10 +22619,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -22718,7 +22720,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1016</v>
+        <v>1107</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
@@ -22764,17 +22766,17 @@
       <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -22787,10 +22789,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="48"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -22851,7 +22853,7 @@
       <c r="B20" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="40" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -22872,9 +22874,9 @@
       <c r="B21" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>326</v>
@@ -22891,7 +22893,7 @@
       <c r="B22" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="6" t="s">
         <v>44</v>
       </c>
@@ -22910,9 +22912,9 @@
       <c r="B23" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>326</v>
@@ -22929,7 +22931,7 @@
       <c r="B24" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="6" t="s">
         <v>45</v>
       </c>
@@ -22948,9 +22950,9 @@
       <c r="B25" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>326</v>
@@ -22974,7 +22976,7 @@
         <v>46</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="8"/>
@@ -22988,7 +22990,7 @@
       <c r="B27" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -23009,7 +23011,7 @@
       <c r="B28" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="37"/>
+      <c r="C28" s="42"/>
       <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
@@ -23035,7 +23037,7 @@
         <v>52</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8"/>
@@ -23049,7 +23051,7 @@
       <c r="B30" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="40" t="s">
         <v>58</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -23070,7 +23072,7 @@
       <c r="B31" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="6" t="s">
         <v>62</v>
       </c>
@@ -23089,7 +23091,7 @@
       <c r="B32" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C32" s="36"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="6" t="s">
         <v>65</v>
       </c>
@@ -23108,7 +23110,7 @@
       <c r="B33" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C33" s="37"/>
+      <c r="C33" s="42"/>
       <c r="D33" s="6" t="s">
         <v>59</v>
       </c>
@@ -23127,7 +23129,7 @@
       <c r="B34" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="40" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -23148,7 +23150,7 @@
       <c r="B35" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="6" t="s">
         <v>73</v>
       </c>
@@ -23167,7 +23169,7 @@
       <c r="B36" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C36" s="36"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="6" t="s">
         <v>74</v>
       </c>
@@ -23186,12 +23188,12 @@
       <c r="B37" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="8"/>
@@ -23205,7 +23207,7 @@
       <c r="B38" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C38" s="37"/>
+      <c r="C38" s="42"/>
       <c r="D38" s="6" t="s">
         <v>46</v>
       </c>
@@ -23224,7 +23226,7 @@
       <c r="B39" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="40" t="s">
         <v>86</v>
       </c>
       <c r="D39" s="6" t="s">
@@ -23245,7 +23247,7 @@
       <c r="B40" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="41"/>
       <c r="D40" s="6" t="s">
         <v>74</v>
       </c>
@@ -23264,7 +23266,7 @@
       <c r="B41" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="6" t="s">
         <v>89</v>
       </c>
@@ -23283,7 +23285,7 @@
       <c r="B42" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C42" s="37"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="6" t="s">
         <v>74</v>
       </c>
@@ -23302,7 +23304,7 @@
       <c r="B43" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="40" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -23323,7 +23325,7 @@
       <c r="B44" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C44" s="37"/>
+      <c r="C44" s="42"/>
       <c r="D44" s="6" t="s">
         <v>96</v>
       </c>
@@ -23342,7 +23344,7 @@
       <c r="B45" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="40" t="s">
         <v>99</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -23363,7 +23365,7 @@
       <c r="B46" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C46" s="37"/>
+      <c r="C46" s="42"/>
       <c r="D46" s="6" t="s">
         <v>46</v>
       </c>
@@ -23382,7 +23384,7 @@
       <c r="B47" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="40" t="s">
         <v>105</v>
       </c>
       <c r="D47" s="6" t="s">
@@ -23403,7 +23405,7 @@
       <c r="B48" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="41"/>
       <c r="D48" s="6" t="s">
         <v>108</v>
       </c>
@@ -23422,7 +23424,7 @@
       <c r="B49" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="6" t="s">
         <v>74</v>
       </c>
@@ -23441,7 +23443,7 @@
       <c r="B50" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="36"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="6" t="s">
         <v>106</v>
       </c>
@@ -23460,7 +23462,7 @@
       <c r="B51" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="6" t="s">
         <v>109</v>
       </c>
@@ -23479,7 +23481,7 @@
       <c r="B52" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="41"/>
       <c r="D52" s="6" t="s">
         <v>110</v>
       </c>
@@ -23498,12 +23500,12 @@
       <c r="B53" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C53" s="37"/>
+      <c r="C53" s="42"/>
       <c r="D53" s="6" t="s">
         <v>52</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="8"/>
@@ -23517,11 +23519,11 @@
       <c r="B54" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="40" t="s">
         <v>114</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>326</v>
@@ -23538,7 +23540,7 @@
       <c r="B55" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C55" s="37"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="6" t="s">
         <v>112</v>
       </c>
@@ -23557,11 +23559,11 @@
       <c r="B56" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>326</v>
@@ -23578,7 +23580,7 @@
       <c r="B57" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C57" s="36"/>
+      <c r="C57" s="41"/>
       <c r="D57" s="6" t="s">
         <v>48</v>
       </c>
@@ -23597,7 +23599,7 @@
       <c r="B58" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C58" s="36"/>
+      <c r="C58" s="41"/>
       <c r="D58" s="6" t="s">
         <v>126</v>
       </c>
@@ -23616,9 +23618,9 @@
       <c r="B59" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C59" s="37"/>
+      <c r="C59" s="42"/>
       <c r="D59" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>326</v>
@@ -23635,7 +23637,7 @@
       <c r="B60" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D60" s="6" t="s">
@@ -23656,7 +23658,7 @@
       <c r="B61" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="37"/>
+      <c r="C61" s="42"/>
       <c r="D61" s="6" t="s">
         <v>134</v>
       </c>
@@ -23675,7 +23677,7 @@
       <c r="B62" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="40" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="6" t="s">
@@ -23696,7 +23698,7 @@
       <c r="B63" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C63" s="36"/>
+      <c r="C63" s="41"/>
       <c r="D63" s="6" t="s">
         <v>140</v>
       </c>
@@ -23715,7 +23717,7 @@
       <c r="B64" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C64" s="37"/>
+      <c r="C64" s="42"/>
       <c r="D64" s="6" t="s">
         <v>142</v>
       </c>
@@ -23776,7 +23778,7 @@
       <c r="B67" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="40" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="6" t="s">
@@ -23797,7 +23799,7 @@
       <c r="B68" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C68" s="37"/>
+      <c r="C68" s="42"/>
       <c r="D68" s="6" t="s">
         <v>154</v>
       </c>
@@ -23816,7 +23818,7 @@
       <c r="B69" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="40" t="s">
         <v>162</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -23837,7 +23839,7 @@
       <c r="B70" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="37"/>
+      <c r="C70" s="42"/>
       <c r="D70" s="6" t="s">
         <v>165</v>
       </c>
@@ -23856,11 +23858,11 @@
       <c r="B71" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="40" t="s">
         <v>166</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>326</v>
@@ -23877,7 +23879,7 @@
       <c r="B72" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C72" s="36"/>
+      <c r="C72" s="41"/>
       <c r="D72" s="6" t="s">
         <v>167</v>
       </c>
@@ -23896,7 +23898,7 @@
       <c r="B73" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C73" s="36"/>
+      <c r="C73" s="41"/>
       <c r="D73" s="6" t="s">
         <v>168</v>
       </c>
@@ -23915,7 +23917,7 @@
       <c r="B74" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C74" s="36"/>
+      <c r="C74" s="41"/>
       <c r="D74" s="6" t="s">
         <v>174</v>
       </c>
@@ -23934,7 +23936,7 @@
       <c r="B75" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C75" s="36"/>
+      <c r="C75" s="41"/>
       <c r="D75" s="6" t="s">
         <v>177</v>
       </c>
@@ -23953,7 +23955,7 @@
       <c r="B76" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="41"/>
       <c r="D76" s="6" t="s">
         <v>176</v>
       </c>
@@ -23972,7 +23974,7 @@
       <c r="B77" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="36"/>
+      <c r="C77" s="41"/>
       <c r="D77" s="6" t="s">
         <v>179</v>
       </c>
@@ -23991,7 +23993,7 @@
       <c r="B78" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C78" s="37"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="6" t="s">
         <v>181</v>
       </c>
@@ -24010,7 +24012,7 @@
       <c r="B79" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C79" s="35" t="s">
+      <c r="C79" s="40" t="s">
         <v>190</v>
       </c>
       <c r="D79" s="6" t="s">
@@ -24031,7 +24033,7 @@
       <c r="B80" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C80" s="36"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="6" t="s">
         <v>106</v>
       </c>
@@ -24050,7 +24052,7 @@
       <c r="B81" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C81" s="36"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="6" t="s">
         <v>193</v>
       </c>
@@ -24069,9 +24071,9 @@
       <c r="B82" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C82" s="37"/>
+      <c r="C82" s="42"/>
       <c r="D82" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>326</v>
@@ -24083,19 +24085,19 @@
     </row>
     <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="28" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B83" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>1061</v>
+      <c r="C83" s="40" t="s">
+        <v>1060</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="8"/>
@@ -24104,17 +24106,17 @@
     </row>
     <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B84" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C84" s="36"/>
+      <c r="C84" s="41"/>
       <c r="D84" s="6" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="8"/>
@@ -24123,17 +24125,17 @@
     </row>
     <row r="85" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B85" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C85" s="36"/>
+      <c r="C85" s="41"/>
       <c r="D85" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="8"/>
@@ -24142,17 +24144,17 @@
     </row>
     <row r="86" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B86" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C86" s="37"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="6" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E86" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="8"/>
@@ -24160,17 +24162,17 @@
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
-      <c r="H87" s="40"/>
-      <c r="I87" s="41"/>
+      <c r="B87" s="45"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="46"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -24183,10 +24185,10 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="38"/>
+      <c r="B89" s="48"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
@@ -24247,11 +24249,11 @@
       <c r="B92" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="51" t="s">
         <v>208</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>326</v>
@@ -24268,7 +24270,7 @@
       <c r="B93" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="43"/>
+      <c r="C93" s="52"/>
       <c r="D93" s="6" t="s">
         <v>202</v>
       </c>
@@ -24287,7 +24289,7 @@
       <c r="B94" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="51" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -24308,7 +24310,7 @@
       <c r="B95" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="43"/>
+      <c r="C95" s="52"/>
       <c r="D95" s="6" t="s">
         <v>205</v>
       </c>
@@ -24327,7 +24329,7 @@
       <c r="B96" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="51" t="s">
         <v>206</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -24348,7 +24350,7 @@
       <c r="B97" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C97" s="43"/>
+      <c r="C97" s="52"/>
       <c r="D97" s="6" t="s">
         <v>207</v>
       </c>
@@ -24367,7 +24369,7 @@
       <c r="B98" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="40" t="s">
         <v>217</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -24388,7 +24390,7 @@
       <c r="B99" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C99" s="37"/>
+      <c r="C99" s="42"/>
       <c r="D99" s="6" t="s">
         <v>218</v>
       </c>
@@ -24407,11 +24409,11 @@
       <c r="B100" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="40" t="s">
         <v>214</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>326</v>
@@ -24428,7 +24430,7 @@
       <c r="B101" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="37"/>
+      <c r="C101" s="42"/>
       <c r="D101" s="6" t="s">
         <v>228</v>
       </c>
@@ -24447,11 +24449,11 @@
       <c r="B102" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="40" t="s">
         <v>229</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>326</v>
@@ -24468,7 +24470,7 @@
       <c r="B103" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C103" s="37"/>
+      <c r="C103" s="42"/>
       <c r="D103" s="6" t="s">
         <v>230</v>
       </c>
@@ -24487,7 +24489,7 @@
       <c r="B104" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C104" s="35" t="s">
+      <c r="C104" s="40" t="s">
         <v>239</v>
       </c>
       <c r="D104" s="6" t="s">
@@ -24508,7 +24510,7 @@
       <c r="B105" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C105" s="37"/>
+      <c r="C105" s="42"/>
       <c r="D105" s="6" t="s">
         <v>240</v>
       </c>
@@ -24527,7 +24529,7 @@
       <c r="B106" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="40" t="s">
         <v>242</v>
       </c>
       <c r="D106" s="6" t="s">
@@ -24548,7 +24550,7 @@
       <c r="B107" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C107" s="37"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="6" t="s">
         <v>245</v>
       </c>
@@ -24567,7 +24569,7 @@
       <c r="B108" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="40" t="s">
         <v>246</v>
       </c>
       <c r="D108" s="6" t="s">
@@ -24588,7 +24590,7 @@
       <c r="B109" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C109" s="37"/>
+      <c r="C109" s="42"/>
       <c r="D109" s="6" t="s">
         <v>247</v>
       </c>
@@ -24607,7 +24609,7 @@
       <c r="B110" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="40" t="s">
         <v>252</v>
       </c>
       <c r="D110" s="6" t="s">
@@ -24628,7 +24630,7 @@
       <c r="B111" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C111" s="36"/>
+      <c r="C111" s="41"/>
       <c r="D111" s="6" t="s">
         <v>254</v>
       </c>
@@ -24647,7 +24649,7 @@
       <c r="B112" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C112" s="36"/>
+      <c r="C112" s="41"/>
       <c r="D112" s="6" t="s">
         <v>106</v>
       </c>
@@ -24666,7 +24668,7 @@
       <c r="B113" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C113" s="37"/>
+      <c r="C113" s="42"/>
       <c r="D113" s="6" t="s">
         <v>255</v>
       </c>
@@ -24685,7 +24687,7 @@
       <c r="B114" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="40" t="s">
         <v>261</v>
       </c>
       <c r="D114" s="6" t="s">
@@ -24706,7 +24708,7 @@
       <c r="B115" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C115" s="36"/>
+      <c r="C115" s="41"/>
       <c r="D115" s="6" t="s">
         <v>325</v>
       </c>
@@ -24725,12 +24727,12 @@
       <c r="B116" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C116" s="37"/>
+      <c r="C116" s="42"/>
       <c r="D116" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="8"/>
@@ -24744,7 +24746,7 @@
       <c r="B117" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="40" t="s">
         <v>270</v>
       </c>
       <c r="D117" s="6" t="s">
@@ -24765,12 +24767,12 @@
       <c r="B118" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C118" s="36"/>
+      <c r="C118" s="41"/>
       <c r="D118" s="6" t="s">
         <v>275</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="8"/>
@@ -24784,12 +24786,12 @@
       <c r="B119" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C119" s="36"/>
+      <c r="C119" s="41"/>
       <c r="D119" s="6" t="s">
         <v>277</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="8"/>
@@ -24803,7 +24805,7 @@
       <c r="B120" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="40" t="s">
         <v>284</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -24824,7 +24826,7 @@
       <c r="B121" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C121" s="36"/>
+      <c r="C121" s="41"/>
       <c r="D121" s="6" t="s">
         <v>285</v>
       </c>
@@ -24843,7 +24845,7 @@
       <c r="B122" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C122" s="36"/>
+      <c r="C122" s="41"/>
       <c r="D122" s="6" t="s">
         <v>289</v>
       </c>
@@ -24862,7 +24864,7 @@
       <c r="B123" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C123" s="37"/>
+      <c r="C123" s="42"/>
       <c r="D123" s="6" t="s">
         <v>292</v>
       </c>
@@ -24881,7 +24883,7 @@
       <c r="B124" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C124" s="35" t="s">
+      <c r="C124" s="40" t="s">
         <v>295</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -24902,7 +24904,7 @@
       <c r="B125" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C125" s="36"/>
+      <c r="C125" s="41"/>
       <c r="D125" s="6" t="s">
         <v>59</v>
       </c>
@@ -24921,7 +24923,7 @@
       <c r="B126" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="41"/>
       <c r="D126" s="6" t="s">
         <v>296</v>
       </c>
@@ -24940,7 +24942,7 @@
       <c r="B127" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C127" s="36"/>
+      <c r="C127" s="41"/>
       <c r="D127" s="6" t="s">
         <v>106</v>
       </c>
@@ -24959,7 +24961,7 @@
       <c r="B128" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C128" s="37"/>
+      <c r="C128" s="42"/>
       <c r="D128" s="6" t="s">
         <v>298</v>
       </c>
@@ -24973,16 +24975,16 @@
     </row>
     <row r="129" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B129" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C129" s="35" t="s">
-        <v>1022</v>
+      <c r="C129" s="40" t="s">
+        <v>1021</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>326</v>
@@ -24994,14 +24996,14 @@
     </row>
     <row r="130" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B130" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C130" s="36"/>
+      <c r="C130" s="41"/>
       <c r="D130" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E130" s="6" t="s">
         <v>72</v>
@@ -25013,12 +25015,12 @@
     </row>
     <row r="131" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A131" s="28" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B131" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C131" s="36"/>
+      <c r="C131" s="41"/>
       <c r="D131" s="6" t="s">
         <v>59</v>
       </c>
@@ -25032,17 +25034,17 @@
     </row>
     <row r="132" spans="1:9" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A132" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B132" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C132" s="37"/>
+      <c r="C132" s="42"/>
       <c r="D132" s="6" t="s">
         <v>106</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F132" s="7"/>
       <c r="G132" s="8"/>
@@ -25050,38 +25052,38 @@
       <c r="I132" s="17"/>
     </row>
     <row r="133" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="46" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B133" s="47" t="s">
+      <c r="A133" s="35" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B133" s="36" t="s">
         <v>333</v>
       </c>
       <c r="C133" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="D133" s="48" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E133" s="48" t="s">
+      <c r="D133" s="37" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E133" s="37" t="s">
         <v>326</v>
       </c>
       <c r="F133" s="33"/>
-      <c r="G133" s="49"/>
-      <c r="H133" s="49"/>
-      <c r="I133" s="50"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="39"/>
     </row>
     <row r="134" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="45" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B134" s="51"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="51"/>
-      <c r="E134" s="51"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="51"/>
-      <c r="I134" s="52"/>
+      <c r="A134" s="44" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
+      <c r="I134" s="50"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
@@ -25165,15 +25167,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C78"/>
@@ -25187,24 +25198,15 @@
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C129:C132"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
+++ b/docs/Alpha Test Plan - USB BASIC v1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sph\Box\Retro\Aquarius\Peripherals\Expanders\Aquarius MX\Aquarius-MX\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F7B76-103D-427F-9B90-AD71E508AB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0318DF99-0AB7-4B5B-A47E-069CC0E67994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E4602F1-086A-45F3-8A9B-97B686BB3C0F}"/>
   </bookViews>
@@ -5408,23 +5408,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5437,6 +5425,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6145,8 +6145,8 @@
   </sheetPr>
   <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,20 +6159,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6190,10 +6190,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -6359,14 +6359,14 @@
       <c r="A16" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -6379,10 +6379,10 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="43"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="5"/>
@@ -7752,17 +7752,17 @@
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="46"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="51"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
@@ -7775,10 +7775,10 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="48" t="s">
+      <c r="A90" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="43"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="5"/>
@@ -7839,7 +7839,7 @@
       <c r="B93" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D93" s="6" t="s">
@@ -7860,7 +7860,7 @@
       <c r="B94" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C94" s="52"/>
+      <c r="C94" s="48"/>
       <c r="D94" s="6" t="s">
         <v>202</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="B95" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -7900,7 +7900,7 @@
       <c r="B96" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="52"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="6" t="s">
         <v>205</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="B97" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -7940,7 +7940,7 @@
       <c r="B98" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="C98" s="52"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="6" t="s">
         <v>207</v>
       </c>
@@ -8704,14 +8704,14 @@
       <c r="A137" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B137" s="49"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="49"/>
-      <c r="H137" s="49"/>
-      <c r="I137" s="50"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45"/>
+      <c r="I137" s="46"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
@@ -8795,14 +8795,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C118:C122"/>
-    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C62"/>
     <mergeCell ref="C63:C65"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A18:B18"/>
@@ -8819,22 +8827,14 @@
     <mergeCell ref="C101:C102"/>
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A88:I88"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C118:C122"/>
+    <mergeCell ref="C123:C126"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8874,20 +8874,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -8905,10 +8905,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -9112,14 +9112,14 @@
       <c r="A18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -9132,10 +9132,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="43"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -10505,17 +10505,17 @@
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="46"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -10528,10 +10528,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="43"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -10592,7 +10592,7 @@
       <c r="B95" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -10613,7 +10613,7 @@
       <c r="B96" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C96" s="52"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="6" t="s">
         <v>202</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="B97" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -10653,7 +10653,7 @@
       <c r="B98" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C98" s="52"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="6" t="s">
         <v>205</v>
       </c>
@@ -10672,7 +10672,7 @@
       <c r="B99" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -10693,7 +10693,7 @@
       <c r="B100" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="C100" s="52"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="6" t="s">
         <v>207</v>
       </c>
@@ -11457,14 +11457,14 @@
       <c r="A139" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="50"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="46"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -11548,24 +11548,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C134:C137"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C81"/>
@@ -11579,15 +11570,24 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11623,20 +11623,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -11654,10 +11654,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -11861,14 +11861,14 @@
       <c r="A18" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -11881,10 +11881,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="43"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="5"/>
@@ -13254,17 +13254,17 @@
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="45"/>
-      <c r="G90" s="45"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="46"/>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="51"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
@@ -13277,10 +13277,10 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B92" s="48"/>
+      <c r="B92" s="43"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="5"/>
@@ -13341,7 +13341,7 @@
       <c r="B95" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D95" s="6" t="s">
@@ -13362,7 +13362,7 @@
       <c r="B96" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C96" s="52"/>
+      <c r="C96" s="48"/>
       <c r="D96" s="6" t="s">
         <v>202</v>
       </c>
@@ -13381,7 +13381,7 @@
       <c r="B97" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D97" s="6" t="s">
@@ -13402,7 +13402,7 @@
       <c r="B98" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="52"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="6" t="s">
         <v>205</v>
       </c>
@@ -13421,7 +13421,7 @@
       <c r="B99" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D99" s="6" t="s">
@@ -13442,7 +13442,7 @@
       <c r="B100" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="C100" s="52"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="6" t="s">
         <v>207</v>
       </c>
@@ -14206,14 +14206,14 @@
       <c r="A139" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B139" s="49"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="49"/>
-      <c r="H139" s="49"/>
-      <c r="I139" s="50"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
+      <c r="G139" s="45"/>
+      <c r="H139" s="45"/>
+      <c r="I139" s="46"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
@@ -14297,24 +14297,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C129:C133"/>
+    <mergeCell ref="A139:I139"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="C125:C128"/>
+    <mergeCell ref="C134:C137"/>
     <mergeCell ref="C107:C108"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C74:C81"/>
@@ -14328,15 +14319,24 @@
     <mergeCell ref="C103:C104"/>
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C129:C133"/>
-    <mergeCell ref="A139:I139"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="C125:C128"/>
-    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14375,20 +14375,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -14406,10 +14406,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -14594,14 +14594,14 @@
       <c r="A17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -14614,10 +14614,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="43"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -15987,17 +15987,17 @@
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="46"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="51"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -16010,10 +16010,10 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="43"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
@@ -16074,7 +16074,7 @@
       <c r="B94" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -16095,7 +16095,7 @@
       <c r="B95" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="52"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="6" t="s">
         <v>202</v>
       </c>
@@ -16114,7 +16114,7 @@
       <c r="B96" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -16135,7 +16135,7 @@
       <c r="B97" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C97" s="52"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="6" t="s">
         <v>205</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="B98" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -16175,7 +16175,7 @@
       <c r="B99" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="C99" s="52"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="6" t="s">
         <v>207</v>
       </c>
@@ -16939,14 +16939,14 @@
       <c r="A138" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="50"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="46"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -17030,24 +17030,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C80"/>
@@ -17061,15 +17052,24 @@
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17111,20 +17111,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -17142,10 +17142,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -17292,14 +17292,14 @@
       <c r="A15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -17312,10 +17312,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="43"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -18763,17 +18763,17 @@
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="46"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="51"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -18786,10 +18786,10 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B93" s="48"/>
+      <c r="B93" s="43"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="5"/>
@@ -18850,7 +18850,7 @@
       <c r="B96" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -18871,7 +18871,7 @@
       <c r="B97" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C97" s="52"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="6" t="s">
         <v>202</v>
       </c>
@@ -18890,7 +18890,7 @@
       <c r="B98" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -18911,7 +18911,7 @@
       <c r="B99" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C99" s="52"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="6" t="s">
         <v>205</v>
       </c>
@@ -18930,7 +18930,7 @@
       <c r="B100" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D100" s="6" t="s">
@@ -18951,7 +18951,7 @@
       <c r="B101" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="C101" s="52"/>
+      <c r="C101" s="48"/>
       <c r="D101" s="6" t="s">
         <v>207</v>
       </c>
@@ -19677,14 +19677,14 @@
       <c r="A138" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="49"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
       <c r="E138" s="53"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="50"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="46"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -19768,24 +19768,15 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
     <mergeCell ref="C108:C109"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C78"/>
@@ -19800,15 +19791,24 @@
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C83:C86"/>
     <mergeCell ref="C87:C90"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19851,20 +19851,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -19882,10 +19882,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -20070,14 +20070,14 @@
       <c r="A17" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -20090,10 +20090,10 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="43"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
@@ -21463,17 +21463,17 @@
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="45"/>
-      <c r="G89" s="45"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="46"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="51"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
@@ -21486,10 +21486,10 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="48" t="s">
+      <c r="A91" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="43"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="5"/>
@@ -21550,7 +21550,7 @@
       <c r="B94" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -21571,7 +21571,7 @@
       <c r="B95" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C95" s="52"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="6" t="s">
         <v>202</v>
       </c>
@@ -21590,7 +21590,7 @@
       <c r="B96" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -21611,7 +21611,7 @@
       <c r="B97" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C97" s="52"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="6" t="s">
         <v>205</v>
       </c>
@@ -21630,7 +21630,7 @@
       <c r="B98" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D98" s="6" t="s">
@@ -21651,7 +21651,7 @@
       <c r="B99" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="C99" s="52"/>
+      <c r="C99" s="48"/>
       <c r="D99" s="6" t="s">
         <v>207</v>
       </c>
@@ -22415,14 +22415,14 @@
       <c r="A138" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B138" s="49"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="49"/>
+      <c r="B138" s="45"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
       <c r="E138" s="53"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="49"/>
-      <c r="H138" s="49"/>
-      <c r="I138" s="50"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="46"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
@@ -22506,24 +22506,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="A138:I138"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C133:C136"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C80"/>
@@ -22537,15 +22528,24 @@
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="A138:I138"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22588,20 +22588,20 @@
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -22619,10 +22619,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -22769,14 +22769,14 @@
       <c r="A15" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -22789,10 +22789,10 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="43"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
@@ -24162,17 +24162,17 @@
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="45"/>
-      <c r="F87" s="45"/>
-      <c r="G87" s="45"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="46"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="51"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
@@ -24185,10 +24185,10 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="48" t="s">
+      <c r="A89" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="43"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="5"/>
@@ -24249,7 +24249,7 @@
       <c r="B92" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="47" t="s">
         <v>208</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -24270,7 +24270,7 @@
       <c r="B93" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C93" s="52"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="6" t="s">
         <v>202</v>
       </c>
@@ -24289,7 +24289,7 @@
       <c r="B94" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="47" t="s">
         <v>204</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -24310,7 +24310,7 @@
       <c r="B95" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C95" s="52"/>
+      <c r="C95" s="48"/>
       <c r="D95" s="6" t="s">
         <v>205</v>
       </c>
@@ -24329,7 +24329,7 @@
       <c r="B96" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="47" t="s">
         <v>206</v>
       </c>
       <c r="D96" s="6" t="s">
@@ -24350,7 +24350,7 @@
       <c r="B97" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="C97" s="52"/>
+      <c r="C97" s="48"/>
       <c r="D97" s="6" t="s">
         <v>207</v>
       </c>
@@ -25076,14 +25076,14 @@
       <c r="A134" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="B134" s="49"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="49"/>
-      <c r="H134" s="49"/>
-      <c r="I134" s="50"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
+      <c r="G134" s="45"/>
+      <c r="H134" s="45"/>
+      <c r="I134" s="46"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
@@ -25167,24 +25167,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C34:C38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="A134:I134"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C129:C132"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C71:C78"/>
@@ -25198,15 +25189,24 @@
     <mergeCell ref="C100:C101"/>
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="A134:I134"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C34:C38"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
